--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670600C1-CFDF-4BCA-9284-B43AF38A9DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7816BE4-2AF8-4D7B-AC8C-36A98E97BB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DCF" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Statement" sheetId="3" r:id="rId2"/>
     <sheet name="Debt Schedule" sheetId="5" r:id="rId3"/>
     <sheet name="Reference" sheetId="4" r:id="rId4"/>
@@ -33,8 +33,8 @@
     <definedName name="OEMO">'Financial Statement'!$C$167:$G$167</definedName>
     <definedName name="RD">'Financial Statement'!$C$173:$G$173</definedName>
     <definedName name="Revenue">'Financial Statement'!$C$169:$G$169</definedName>
-    <definedName name="sensitivityTEV">Sheet1!$E$24:$I$24</definedName>
-    <definedName name="sensitivityTV">Sheet1!$E$23:$I$23</definedName>
+    <definedName name="sensitivityTEV">DCF!$E$24:$I$24</definedName>
+    <definedName name="sensitivityTV">DCF!$E$23:$I$23</definedName>
     <definedName name="SGA">'Financial Statement'!$C$174:$G$174</definedName>
     <definedName name="USTax">'Financial Statement'!$H$67:$L$67</definedName>
   </definedNames>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="288">
   <si>
     <t>-</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>check GPU profit margins</t>
+  </si>
+  <si>
+    <t>Training and inference</t>
   </si>
 </sst>
 </file>
@@ -1113,13 +1116,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1131,6 +1127,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1456,11 +1458,10 @@
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1473,13 +1474,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="13" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1884,7 +1886,7 @@
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,7 +1955,7 @@
       </c>
       <c r="H4" s="44">
         <f>+'Financial Statement'!L169</f>
-        <v>57875034.379282802</v>
+        <v>56081034.379282802</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1987,7 +1989,7 @@
       </c>
       <c r="H6" s="44">
         <f>+'Financial Statement'!L177</f>
-        <v>45748964.053826235</v>
+        <v>44313764.053826235</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2005,23 +2007,23 @@
       </c>
       <c r="D8" s="87">
         <f>+'Financial Statement'!H193</f>
-        <v>1361881.2698926227</v>
+        <v>1256449.3614646494</v>
       </c>
       <c r="E8" s="87">
         <f>+'Financial Statement'!I193</f>
-        <v>2596062.2332863659</v>
+        <v>2540383.609144019</v>
       </c>
       <c r="F8" s="87">
         <f>+'Financial Statement'!J193</f>
-        <v>3111099.4654166922</v>
+        <v>3005667.5569887199</v>
       </c>
       <c r="G8" s="87">
         <f>+'Financial Statement'!K193</f>
-        <v>3300063.9080166612</v>
+        <v>3244385.2838743161</v>
       </c>
       <c r="H8" s="87">
         <f>+'Financial Statement'!L193</f>
-        <v>3382433.4151759315</v>
+        <v>3157792.9698418947</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -2034,23 +2036,23 @@
       </c>
       <c r="D9" s="44">
         <f>+D6-D8</f>
-        <v>20164034.730107378</v>
+        <v>20269466.638535351</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ref="E9:H9" si="1">+E6-E8</f>
-        <v>33772159.726713635</v>
+        <v>33827838.350855984</v>
       </c>
       <c r="F9" s="44">
         <f t="shared" si="1"/>
-        <v>39457864.947583303</v>
+        <v>39563296.856011271</v>
       </c>
       <c r="G9" s="44">
         <f t="shared" si="1"/>
-        <v>41477720.189464338</v>
+        <v>41533398.813606679</v>
       </c>
       <c r="H9" s="44">
         <f t="shared" si="1"/>
-        <v>42366530.638650306</v>
+        <v>41155971.083984338</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -2063,23 +2065,23 @@
       </c>
       <c r="D10" s="54">
         <f t="shared" ref="D10:H10" si="2">+D9/D4</f>
-        <v>0.37469317877311009</v>
+        <v>0.37665234108570061</v>
       </c>
       <c r="E10" s="54">
         <f t="shared" si="2"/>
-        <v>0.60067976267121126</v>
+        <v>0.6016700760833924</v>
       </c>
       <c r="F10" s="54">
         <f t="shared" si="2"/>
-        <v>0.6860282056692365</v>
+        <v>0.68786128161126237</v>
       </c>
       <c r="G10" s="54">
         <f t="shared" si="2"/>
-        <v>0.71892228077639697</v>
+        <v>0.71988734354445805</v>
       </c>
       <c r="H10" s="54">
         <f t="shared" si="2"/>
-        <v>0.73203465178097604</v>
+        <v>0.73386611961615289</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2169,23 +2171,23 @@
       <c r="C14" s="52"/>
       <c r="D14" s="52">
         <f>+D9+D11-C12-D13</f>
-        <v>20164034.730107378</v>
+        <v>20269466.638535351</v>
       </c>
       <c r="E14" s="52">
         <f>+E9+E11-E12-E13</f>
-        <v>33772159.726713635</v>
+        <v>33827838.350855984</v>
       </c>
       <c r="F14" s="52">
         <f>+F9+F11-F12-F13</f>
-        <v>39457864.947583303</v>
+        <v>39563296.856011271</v>
       </c>
       <c r="G14" s="52">
         <f>+G9+G11-G12-G13</f>
-        <v>41477720.189464338</v>
+        <v>41533398.813606679</v>
       </c>
       <c r="H14" s="52">
         <f>+H9+H11-H12-H13</f>
-        <v>42366530.638650306</v>
+        <v>41155971.083984338</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2220,29 +2222,29 @@
       <c r="C16" s="41"/>
       <c r="D16" s="45">
         <f>+D14/(1+$C$29)^D15</f>
-        <v>20164034.730107378</v>
+        <v>20269466.638535351</v>
       </c>
       <c r="E16" s="45">
         <f>+E14/(1+$C$29)^E15</f>
-        <v>28766217.546266057</v>
+        <v>28813643.101152577</v>
       </c>
       <c r="F16" s="45">
         <f>+F14/(1+$C$29)^F15</f>
-        <v>28627368.854939409</v>
+        <v>28703861.542408869</v>
       </c>
       <c r="G16" s="45">
         <f>+G14/(1+$C$29)^G15</f>
-        <v>25632245.569252275</v>
+        <v>25666653.636051882</v>
       </c>
       <c r="H16" s="96">
         <f>+H14/(1+$C$29)^H15</f>
-        <v>22300705.627363712</v>
+        <v>21663496.68280194</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H17" s="52">
         <f>+SUM(D16:H16)</f>
-        <v>125490572.32792884</v>
+        <v>125117121.60095063</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -2258,14 +2260,14 @@
       </c>
       <c r="F19" s="100">
         <f>+C35/C21</f>
-        <v>557.25370875982833</v>
+        <v>542.60347541465092</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="111">
+      <c r="C20" s="110">
         <v>5.5E-2</v>
       </c>
     </row>
@@ -2282,7 +2284,7 @@
       <c r="B22" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="112">
+      <c r="C22" s="111">
         <v>750</v>
       </c>
       <c r="E22" s="41" t="s">
@@ -2297,22 +2299,22 @@
         <f>+SLOPE(df!D2:D755,df!E2:E755)</f>
         <v>2.1784693004584912</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="109">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="109">
         <f>+E23+0.5%</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="G23" s="110">
+      <c r="G23" s="109">
         <f t="shared" ref="G23:I23" si="4">+F23+0.5%</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H23" s="110">
+      <c r="H23" s="109">
         <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="I23" s="110">
+      <c r="I23" s="109">
         <f t="shared" si="4"/>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -2327,19 +2329,19 @@
       </c>
       <c r="E24" s="43" cm="1">
         <f t="array" ref="E24:I24">+($H$14*(1+sensitivityTV)/sensitivityTV)-$C$34+$H$17</f>
-        <v>1860048328.5125909</v>
+        <v>1810041936.0443082</v>
       </c>
       <c r="F24" s="43">
-        <v>1577604790.9215891</v>
+        <v>1535668795.4844129</v>
       </c>
       <c r="G24" s="43">
-        <v>1375859406.9280162</v>
+        <v>1339687980.7987731</v>
       </c>
       <c r="H24" s="43">
-        <v>1224550368.9328368</v>
+        <v>1192702369.7845435</v>
       </c>
       <c r="I24" s="43">
-        <v>1106865561.6032526</v>
+        <v>1078380227.8845868</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -2372,31 +2374,31 @@
         <f>+SUMPRODUCT('Debt Schedule'!B5:B12,'Debt Schedule'!C5:C12)/SUM('Debt Schedule'!B5:B12)</f>
         <v>2.6335897435897437E-2</v>
       </c>
-      <c r="E27" s="109" cm="1">
+      <c r="E27" s="108" cm="1">
         <f t="array" ref="E27:I27">+sensitivityTEV/$C$21</f>
-        <v>753.36100790303396</v>
-      </c>
-      <c r="F27" s="109">
-        <v>638.96508340283071</v>
-      </c>
-      <c r="G27" s="109">
-        <v>557.25370875982833</v>
-      </c>
-      <c r="H27" s="109">
-        <v>495.97017777757668</v>
-      </c>
-      <c r="I27" s="109">
-        <v>448.30520923582532</v>
+        <v>733.10730499971976</v>
+      </c>
+      <c r="F27" s="108">
+        <v>621.98007107509636</v>
+      </c>
+      <c r="G27" s="108">
+        <v>542.60347541465092</v>
+      </c>
+      <c r="H27" s="108">
+        <v>483.07102866931695</v>
+      </c>
+      <c r="I27" s="108">
+        <v>436.76801453405704</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="54"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="108">
+      <c r="C29" s="107">
         <f>+(C24/SUM(C24:C25)*C26+(C25/SUM(C24:C25))*C27*(1-C19))</f>
         <v>0.17402156444086844</v>
       </c>
@@ -2406,7 +2408,7 @@
       <c r="B31" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="111">
+      <c r="C31" s="110">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -2416,7 +2418,7 @@
       </c>
       <c r="C32" s="97">
         <f>(H14*(1+C31)/C31)</f>
-        <v>1252838834.6000874</v>
+        <v>1217040859.1978223</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -2425,7 +2427,7 @@
       </c>
       <c r="C33" s="52">
         <f>+C32+H17</f>
-        <v>1378329406.9280162</v>
+        <v>1342157980.7987731</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="17.25" x14ac:dyDescent="0.4">
@@ -2443,7 +2445,7 @@
       </c>
       <c r="C35" s="52">
         <f>+C33-C34</f>
-        <v>1375859406.9280162</v>
+        <v>1339687980.7987731</v>
       </c>
     </row>
   </sheetData>
@@ -2457,10 +2459,10 @@
   <dimension ref="A4:R267"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H194" sqref="H194:L194"/>
+      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2763,34 +2765,34 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="103" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="114">
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113">
         <f>+AVERAGE(G14:G16)</f>
         <v>35</v>
       </c>
-      <c r="H17" s="114">
+      <c r="H17" s="113">
         <f t="shared" ref="H17:L17" si="2">+AVERAGE(H14:H16)</f>
         <v>36</v>
       </c>
-      <c r="I17" s="114">
+      <c r="I17" s="113">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="J17" s="114">
+      <c r="J17" s="113">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="K17" s="114">
+      <c r="K17" s="113">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="L17" s="114">
+      <c r="L17" s="113">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
@@ -2840,23 +2842,23 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="115">
+      <c r="G20" s="114">
         <v>116000</v>
       </c>
-      <c r="H20" s="115">
+      <c r="H20" s="114">
         <v>116000</v>
       </c>
-      <c r="I20" s="115">
+      <c r="I20" s="114">
         <v>116000</v>
       </c>
-      <c r="J20" s="115">
+      <c r="J20" s="114">
         <v>116000</v>
       </c>
-      <c r="K20" s="115">
+      <c r="K20" s="114">
         <v>116000</v>
       </c>
-      <c r="L20" s="115">
-        <v>116000</v>
+      <c r="L20" s="114">
+        <v>70000</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -2870,22 +2872,22 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="115">
+      <c r="G21" s="114">
         <v>65000</v>
       </c>
-      <c r="H21" s="115">
+      <c r="H21" s="114">
         <v>65000</v>
       </c>
-      <c r="I21" s="115">
+      <c r="I21" s="114">
         <v>65000</v>
       </c>
-      <c r="J21" s="115">
+      <c r="J21" s="114">
         <v>65000</v>
       </c>
-      <c r="K21" s="115">
+      <c r="K21" s="114">
         <v>65000</v>
       </c>
-      <c r="L21" s="115">
+      <c r="L21" s="114">
         <v>65000</v>
       </c>
       <c r="M21" s="8"/>
@@ -2900,22 +2902,22 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="115">
+      <c r="G22" s="114">
         <v>90000</v>
       </c>
-      <c r="H22" s="115">
+      <c r="H22" s="114">
         <v>90000</v>
       </c>
-      <c r="I22" s="115">
+      <c r="I22" s="114">
         <v>90000</v>
       </c>
-      <c r="J22" s="115">
+      <c r="J22" s="114">
         <v>90000</v>
       </c>
-      <c r="K22" s="115">
+      <c r="K22" s="114">
         <v>90000</v>
       </c>
-      <c r="L22" s="115">
+      <c r="L22" s="114">
         <v>90000</v>
       </c>
       <c r="M22" s="8"/>
@@ -2930,22 +2932,22 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="115">
+      <c r="G23" s="114">
         <v>100000</v>
       </c>
-      <c r="H23" s="115">
+      <c r="H23" s="114">
         <v>100000</v>
       </c>
-      <c r="I23" s="115">
+      <c r="I23" s="114">
         <v>100000</v>
       </c>
-      <c r="J23" s="115">
+      <c r="J23" s="114">
         <v>100000</v>
       </c>
-      <c r="K23" s="115">
+      <c r="K23" s="114">
         <v>100000</v>
       </c>
-      <c r="L23" s="115">
+      <c r="L23" s="114">
         <v>100000</v>
       </c>
       <c r="M23" s="8"/>
@@ -2960,22 +2962,22 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="115">
+      <c r="G24" s="114">
         <v>61000</v>
       </c>
-      <c r="H24" s="115">
+      <c r="H24" s="114">
         <v>61000</v>
       </c>
-      <c r="I24" s="115">
+      <c r="I24" s="114">
         <v>61000</v>
       </c>
-      <c r="J24" s="115">
+      <c r="J24" s="114">
         <v>61000</v>
       </c>
-      <c r="K24" s="115">
+      <c r="K24" s="114">
         <v>61000</v>
       </c>
-      <c r="L24" s="115">
+      <c r="L24" s="114">
         <v>61000</v>
       </c>
       <c r="M24" s="8"/>
@@ -2990,22 +2992,22 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="115">
+      <c r="G25" s="114">
         <v>130000</v>
       </c>
-      <c r="H25" s="115">
+      <c r="H25" s="114">
         <v>130000</v>
       </c>
-      <c r="I25" s="115">
+      <c r="I25" s="114">
         <v>130000</v>
       </c>
-      <c r="J25" s="115">
+      <c r="J25" s="114">
         <v>130000</v>
       </c>
-      <c r="K25" s="115">
+      <c r="K25" s="114">
         <v>130000</v>
       </c>
-      <c r="L25" s="115">
+      <c r="L25" s="114">
         <v>130000</v>
       </c>
       <c r="M25" s="8"/>
@@ -3020,22 +3022,22 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="115">
+      <c r="G26" s="114">
         <v>11000</v>
       </c>
-      <c r="H26" s="115">
+      <c r="H26" s="114">
         <v>11000</v>
       </c>
-      <c r="I26" s="115">
+      <c r="I26" s="114">
         <v>11000</v>
       </c>
-      <c r="J26" s="115">
+      <c r="J26" s="114">
         <v>11000</v>
       </c>
-      <c r="K26" s="115">
+      <c r="K26" s="114">
         <v>11000</v>
       </c>
-      <c r="L26" s="115">
+      <c r="L26" s="114">
         <v>11000</v>
       </c>
       <c r="M26" s="8"/>
@@ -3050,22 +3052,22 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="115">
+      <c r="G27" s="114">
         <v>85000</v>
       </c>
-      <c r="H27" s="115">
+      <c r="H27" s="114">
         <v>85000</v>
       </c>
-      <c r="I27" s="115">
+      <c r="I27" s="114">
         <v>85000</v>
       </c>
-      <c r="J27" s="115">
+      <c r="J27" s="114">
         <v>85000</v>
       </c>
-      <c r="K27" s="115">
+      <c r="K27" s="114">
         <v>85000</v>
       </c>
-      <c r="L27" s="115">
+      <c r="L27" s="114">
         <v>85000</v>
       </c>
       <c r="M27" s="8"/>
@@ -3080,22 +3082,22 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="115">
+      <c r="G28" s="114">
         <v>57000</v>
       </c>
-      <c r="H28" s="115">
+      <c r="H28" s="114">
         <v>57000</v>
       </c>
-      <c r="I28" s="115">
+      <c r="I28" s="114">
         <v>57000</v>
       </c>
-      <c r="J28" s="115">
+      <c r="J28" s="114">
         <v>57000</v>
       </c>
-      <c r="K28" s="115">
+      <c r="K28" s="114">
         <v>57000</v>
       </c>
-      <c r="L28" s="115">
+      <c r="L28" s="114">
         <v>57000</v>
       </c>
       <c r="M28" s="8"/>
@@ -3103,29 +3105,29 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="116" t="s">
         <v>256</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="115">
+      <c r="G29" s="114">
         <v>50000</v>
       </c>
-      <c r="H29" s="115">
+      <c r="H29" s="114">
         <v>50000</v>
       </c>
-      <c r="I29" s="115">
+      <c r="I29" s="114">
         <v>50000</v>
       </c>
-      <c r="J29" s="115">
+      <c r="J29" s="114">
         <v>50000</v>
       </c>
-      <c r="K29" s="115">
+      <c r="K29" s="114">
         <v>50000</v>
       </c>
-      <c r="L29" s="115">
+      <c r="L29" s="114">
         <v>50000</v>
       </c>
       <c r="M29" s="8"/>
@@ -3140,22 +3142,22 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="115">
+      <c r="G30" s="114">
         <v>50000</v>
       </c>
-      <c r="H30" s="115">
+      <c r="H30" s="114">
         <v>50000</v>
       </c>
-      <c r="I30" s="115">
+      <c r="I30" s="114">
         <v>50000</v>
       </c>
-      <c r="J30" s="115">
+      <c r="J30" s="114">
         <v>50000</v>
       </c>
-      <c r="K30" s="115">
+      <c r="K30" s="114">
         <v>50000</v>
       </c>
-      <c r="L30" s="115">
+      <c r="L30" s="114">
         <v>50000</v>
       </c>
       <c r="M30" s="8"/>
@@ -3170,22 +3172,22 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="115">
+      <c r="G31" s="114">
         <v>11000</v>
       </c>
-      <c r="H31" s="115">
+      <c r="H31" s="114">
         <v>11000</v>
       </c>
-      <c r="I31" s="115">
+      <c r="I31" s="114">
         <v>11000</v>
       </c>
-      <c r="J31" s="115">
+      <c r="J31" s="114">
         <v>11000</v>
       </c>
-      <c r="K31" s="115">
+      <c r="K31" s="114">
         <v>11000</v>
       </c>
-      <c r="L31" s="115">
+      <c r="L31" s="114">
         <v>11000</v>
       </c>
       <c r="M31" s="8"/>
@@ -3200,22 +3202,22 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="115">
+      <c r="G32" s="114">
         <v>10000</v>
       </c>
-      <c r="H32" s="115">
+      <c r="H32" s="114">
         <v>10000</v>
       </c>
-      <c r="I32" s="115">
+      <c r="I32" s="114">
         <v>10000</v>
       </c>
-      <c r="J32" s="115">
+      <c r="J32" s="114">
         <v>10000</v>
       </c>
-      <c r="K32" s="115">
+      <c r="K32" s="114">
         <v>10000</v>
       </c>
-      <c r="L32" s="115">
+      <c r="L32" s="114">
         <v>10000</v>
       </c>
       <c r="M32" s="8"/>
@@ -3230,22 +3232,22 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="115">
+      <c r="G33" s="114">
         <v>90000</v>
       </c>
-      <c r="H33" s="115">
+      <c r="H33" s="114">
         <v>90000</v>
       </c>
-      <c r="I33" s="115">
+      <c r="I33" s="114">
         <v>90000</v>
       </c>
-      <c r="J33" s="115">
+      <c r="J33" s="114">
         <v>90000</v>
       </c>
-      <c r="K33" s="115">
+      <c r="K33" s="114">
         <v>90000</v>
       </c>
-      <c r="L33" s="115">
+      <c r="L33" s="114">
         <v>90000</v>
       </c>
       <c r="M33" s="8"/>
@@ -3260,22 +3262,22 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="115">
+      <c r="G34" s="114">
         <v>90000</v>
       </c>
-      <c r="H34" s="115">
+      <c r="H34" s="114">
         <v>90000</v>
       </c>
-      <c r="I34" s="115">
+      <c r="I34" s="114">
         <v>90000</v>
       </c>
-      <c r="J34" s="115">
+      <c r="J34" s="114">
         <v>90000</v>
       </c>
-      <c r="K34" s="115">
+      <c r="K34" s="114">
         <v>90000</v>
       </c>
-      <c r="L34" s="115">
+      <c r="L34" s="114">
         <v>90000</v>
       </c>
       <c r="M34" s="8"/>
@@ -3290,22 +3292,22 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="115">
+      <c r="G35" s="114">
         <v>10000</v>
       </c>
-      <c r="H35" s="115">
+      <c r="H35" s="114">
         <v>10000</v>
       </c>
-      <c r="I35" s="115">
+      <c r="I35" s="114">
         <v>10000</v>
       </c>
-      <c r="J35" s="115">
+      <c r="J35" s="114">
         <v>10000</v>
       </c>
-      <c r="K35" s="115">
+      <c r="K35" s="114">
         <v>10000</v>
       </c>
-      <c r="L35" s="115">
+      <c r="L35" s="114">
         <v>10000</v>
       </c>
       <c r="M35" s="8"/>
@@ -3320,22 +3322,22 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="115">
+      <c r="G36" s="114">
         <v>55000</v>
       </c>
-      <c r="H36" s="115">
+      <c r="H36" s="114">
         <v>55000</v>
       </c>
-      <c r="I36" s="115">
+      <c r="I36" s="114">
         <v>55000</v>
       </c>
-      <c r="J36" s="115">
+      <c r="J36" s="114">
         <v>55000</v>
       </c>
-      <c r="K36" s="115">
+      <c r="K36" s="114">
         <v>55000</v>
       </c>
-      <c r="L36" s="115">
+      <c r="L36" s="114">
         <v>55000</v>
       </c>
       <c r="M36" s="8"/>
@@ -3350,22 +3352,22 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="115">
+      <c r="G37" s="114">
         <v>15000</v>
       </c>
-      <c r="H37" s="115">
+      <c r="H37" s="114">
         <v>15000</v>
       </c>
-      <c r="I37" s="115">
+      <c r="I37" s="114">
         <v>15000</v>
       </c>
-      <c r="J37" s="115">
+      <c r="J37" s="114">
         <v>15000</v>
       </c>
-      <c r="K37" s="115">
+      <c r="K37" s="114">
         <v>15000</v>
       </c>
-      <c r="L37" s="115">
+      <c r="L37" s="114">
         <v>15000</v>
       </c>
       <c r="M37" s="8"/>
@@ -3380,22 +3382,22 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="115">
+      <c r="G38" s="114">
         <v>11000</v>
       </c>
-      <c r="H38" s="115">
+      <c r="H38" s="114">
         <v>11000</v>
       </c>
-      <c r="I38" s="115">
+      <c r="I38" s="114">
         <v>11000</v>
       </c>
-      <c r="J38" s="115">
+      <c r="J38" s="114">
         <v>11000</v>
       </c>
-      <c r="K38" s="115">
+      <c r="K38" s="114">
         <v>11000</v>
       </c>
-      <c r="L38" s="115">
+      <c r="L38" s="114">
         <v>11000</v>
       </c>
       <c r="M38" s="8"/>
@@ -3410,22 +3412,22 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="115">
+      <c r="G39" s="114">
         <v>11000</v>
       </c>
-      <c r="H39" s="115">
+      <c r="H39" s="114">
         <v>11000</v>
       </c>
-      <c r="I39" s="115">
+      <c r="I39" s="114">
         <v>11000</v>
       </c>
-      <c r="J39" s="115">
+      <c r="J39" s="114">
         <v>11000</v>
       </c>
-      <c r="K39" s="115">
+      <c r="K39" s="114">
         <v>11000</v>
       </c>
-      <c r="L39" s="115">
+      <c r="L39" s="114">
         <v>11000</v>
       </c>
       <c r="M39" s="8"/>
@@ -3440,29 +3442,29 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="116">
+      <c r="G40" s="115">
         <f>+SUM(G20:G39)</f>
         <v>1118000</v>
       </c>
-      <c r="H40" s="116">
+      <c r="H40" s="115">
         <f t="shared" ref="H40:L40" si="3">+SUM(H20:H39)</f>
         <v>1118000</v>
       </c>
-      <c r="I40" s="116">
+      <c r="I40" s="115">
         <f t="shared" si="3"/>
         <v>1118000</v>
       </c>
-      <c r="J40" s="116">
+      <c r="J40" s="115">
         <f t="shared" si="3"/>
         <v>1118000</v>
       </c>
-      <c r="K40" s="116">
+      <c r="K40" s="115">
         <f t="shared" si="3"/>
         <v>1118000</v>
       </c>
-      <c r="L40" s="116">
+      <c r="L40" s="115">
         <f t="shared" si="3"/>
-        <v>1118000</v>
+        <v>1072000</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -3531,7 +3533,7 @@
       </c>
       <c r="L43" s="54">
         <f t="shared" si="4"/>
-        <v>0.75338184188807944</v>
+        <v>0.74549266900548683</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -3576,7 +3578,7 @@
       </c>
       <c r="L44" s="54">
         <f t="shared" si="4"/>
-        <v>0.18971741634636699</v>
+        <v>0.19578636726163604</v>
       </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -3621,7 +3623,7 @@
       </c>
       <c r="L45" s="54">
         <f t="shared" si="4"/>
-        <v>2.9626548057539972E-2</v>
+        <v>3.0574284271814599E-2</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -3666,7 +3668,7 @@
       </c>
       <c r="L46" s="54">
         <f t="shared" si="4"/>
-        <v>2.185343004330105E-2</v>
+        <v>2.2552508687830566E-2</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -3711,7 +3713,7 @@
       </c>
       <c r="L47" s="54">
         <f t="shared" si="4"/>
-        <v>5.4207636647125535E-3</v>
+        <v>5.5941707732320572E-3</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -4055,7 +4057,7 @@
       </c>
       <c r="L61" s="43">
         <f t="shared" si="9"/>
-        <v>25617316.848950133</v>
+        <v>24823235.827315912</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -4098,7 +4100,7 @@
       </c>
       <c r="L62" s="43">
         <f t="shared" si="10"/>
-        <v>32257717.53033267</v>
+        <v>31257798.551966891</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
@@ -7207,7 +7209,7 @@
         <v>43602000</v>
       </c>
       <c r="L163" s="57">
-        <v>43602000</v>
+        <v>41808000</v>
       </c>
       <c r="M163" s="8"/>
       <c r="N163" s="8"/>
@@ -7231,7 +7233,7 @@
         <v>10447000</v>
       </c>
       <c r="H164" s="57">
-        <f t="shared" ref="H163:L167" si="28">+G164*(1+H51)</f>
+        <f t="shared" ref="H164:L167" si="28">+G164*(1+H51)</f>
         <v>10551470</v>
       </c>
       <c r="I164" s="57">
@@ -7434,25 +7436,25 @@
       </c>
       <c r="L169" s="77">
         <f t="shared" si="30"/>
-        <v>57875034.379282802</v>
+        <v>56081034.379282802</v>
       </c>
       <c r="M169" s="8"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="16"/>
-      <c r="B170" s="105" t="s">
+      <c r="B170" s="104" t="s">
         <v>275</v>
       </c>
       <c r="C170" s="68"/>
-      <c r="D170" s="106">
+      <c r="D170" s="105">
         <f>+D169/C169-1</f>
         <v>0.52729437625938824</v>
       </c>
-      <c r="E170" s="106">
+      <c r="E170" s="105">
         <f t="shared" ref="E170:F170" si="31">+E169/D169-1</f>
         <v>0.61403298350824587</v>
       </c>
-      <c r="F170" s="106">
+      <c r="F170" s="105">
         <f t="shared" si="31"/>
         <v>2.2293230289069932E-3</v>
       </c>
@@ -7544,7 +7546,7 @@
       </c>
       <c r="L172" s="70">
         <f t="shared" si="33"/>
-        <v>57323970.929682799</v>
+        <v>55529970.929682799</v>
       </c>
       <c r="M172" s="8"/>
     </row>
@@ -7586,7 +7588,7 @@
       </c>
       <c r="L173" s="69">
         <f t="shared" si="34"/>
-        <v>8681255.1568924207</v>
+        <v>8412155.1568924207</v>
       </c>
       <c r="M173" s="8"/>
       <c r="N173" s="8"/>
@@ -7629,7 +7631,7 @@
       </c>
       <c r="L174" s="69">
         <f t="shared" si="35"/>
-        <v>2893751.7189641404</v>
+        <v>2804051.7189641404</v>
       </c>
       <c r="M174" s="8"/>
       <c r="N174" s="8"/>
@@ -7712,7 +7714,7 @@
       </c>
       <c r="L176" s="70">
         <f t="shared" si="36"/>
-        <v>11575006.875856562</v>
+        <v>11216206.875856562</v>
       </c>
       <c r="M176" s="8"/>
       <c r="N176" s="8"/>
@@ -7755,7 +7757,7 @@
       </c>
       <c r="L177" s="57">
         <f t="shared" si="37"/>
-        <v>45748964.053826235</v>
+        <v>44313764.053826235</v>
       </c>
       <c r="M177" s="8"/>
       <c r="N177" s="8"/>
@@ -7781,16 +7783,16 @@
         <v>866000</v>
       </c>
       <c r="H178" s="80">
-        <f>+G178</f>
-        <v>866000</v>
+        <f>+F178</f>
+        <v>267000</v>
       </c>
       <c r="I178" s="80">
-        <f t="shared" ref="I178:L178" si="38">+H178</f>
+        <f t="shared" ref="I178:L178" si="38">+G178</f>
         <v>866000</v>
       </c>
       <c r="J178" s="80">
         <f t="shared" si="38"/>
-        <v>866000</v>
+        <v>267000</v>
       </c>
       <c r="K178" s="80">
         <f t="shared" si="38"/>
@@ -7798,7 +7800,7 @@
       </c>
       <c r="L178" s="80">
         <f t="shared" si="38"/>
-        <v>866000</v>
+        <v>267000</v>
       </c>
       <c r="M178" s="8"/>
       <c r="N178" s="8"/>
@@ -7907,7 +7909,7 @@
       </c>
       <c r="H181" s="69">
         <f t="shared" ref="H181:L181" si="39">+H178-H179+H180</f>
-        <v>352450</v>
+        <v>-246550</v>
       </c>
       <c r="I181" s="69">
         <f t="shared" si="39"/>
@@ -7915,7 +7917,7 @@
       </c>
       <c r="J181" s="69">
         <f t="shared" si="39"/>
-        <v>368950</v>
+        <v>-230050</v>
       </c>
       <c r="K181" s="69">
         <f t="shared" si="39"/>
@@ -7923,7 +7925,7 @@
       </c>
       <c r="L181" s="69">
         <f t="shared" si="39"/>
-        <v>455650</v>
+        <v>-143350</v>
       </c>
       <c r="M181" s="8"/>
       <c r="N181" s="8"/>
@@ -7951,7 +7953,7 @@
       </c>
       <c r="H182" s="71">
         <f>+H184*H57</f>
-        <v>9684055.3093463778</v>
+        <v>9418919.0039066356</v>
       </c>
       <c r="I182" s="71">
         <f t="shared" ref="I182:L182" si="40">+I184*I57</f>
@@ -7959,7 +7961,7 @@
       </c>
       <c r="J182" s="71">
         <f t="shared" si="40"/>
-        <v>19005676.111436885</v>
+        <v>18740539.805997141</v>
       </c>
       <c r="K182" s="71">
         <f t="shared" si="40"/>
@@ -7967,7 +7969,7 @@
       </c>
       <c r="L182" s="71">
         <f t="shared" si="40"/>
-        <v>20451620.474959429</v>
+        <v>19551219.35221231</v>
       </c>
       <c r="M182" s="8"/>
       <c r="N182" s="8"/>
@@ -7995,7 +7997,7 @@
       </c>
       <c r="H183" s="71">
         <f>+H184*H58</f>
-        <v>12194310.690653622</v>
+        <v>11860446.996093364</v>
       </c>
       <c r="I183" s="71">
         <f t="shared" ref="I183:L183" si="41">+I184*I58</f>
@@ -8003,7 +8005,7 @@
       </c>
       <c r="J183" s="71">
         <f t="shared" si="41"/>
-        <v>23932238.30156311</v>
+        <v>23598374.607002854</v>
       </c>
       <c r="K183" s="71">
         <f t="shared" si="41"/>
@@ -8011,7 +8013,7 @@
       </c>
       <c r="L183" s="71">
         <f t="shared" si="41"/>
-        <v>25752993.578866806</v>
+        <v>24619194.701613925</v>
       </c>
       <c r="M183" s="8"/>
       <c r="N183" s="8"/>
@@ -8034,27 +8036,28 @@
         <v>4181000</v>
       </c>
       <c r="G184" s="81">
+        <f>+G177+G181</f>
         <v>33818000</v>
       </c>
-      <c r="H184" s="82">
-        <f>+H177+H178-H179+H180</f>
-        <v>21878366</v>
-      </c>
-      <c r="I184" s="82">
-        <f t="shared" ref="I184:L184" si="42">+I177+I178-I179+I180</f>
+      <c r="H184" s="81">
+        <f t="shared" ref="H184:L184" si="42">+H177+H181</f>
+        <v>21279366</v>
+      </c>
+      <c r="I184" s="81">
+        <f t="shared" si="42"/>
         <v>36737171.960000001</v>
       </c>
-      <c r="J184" s="82">
+      <c r="J184" s="81">
         <f t="shared" si="42"/>
-        <v>42937914.412999995</v>
-      </c>
-      <c r="K184" s="82">
+        <v>42338914.412999995</v>
+      </c>
+      <c r="K184" s="81">
         <f t="shared" si="42"/>
         <v>45212934.097480997</v>
       </c>
-      <c r="L184" s="82">
+      <c r="L184" s="81">
         <f t="shared" si="42"/>
-        <v>46204614.053826235</v>
+        <v>44170414.053826235</v>
       </c>
       <c r="M184" s="8"/>
       <c r="N184" s="8"/>
@@ -8081,19 +8084,19 @@
       </c>
       <c r="H185" s="57" cm="1">
         <f t="array" ref="H185:L185">+H182*USTax</f>
-        <v>2033651.6149627392</v>
+        <v>1977972.9908203934</v>
       </c>
       <c r="I185" s="57">
-        <v>2033651.6149627392</v>
+        <v>1977972.9908203934</v>
       </c>
       <c r="J185" s="63">
-        <v>2033651.6149627392</v>
+        <v>1977972.9908203934</v>
       </c>
       <c r="K185" s="57">
-        <v>2033651.6149627392</v>
+        <v>1977972.9908203934</v>
       </c>
       <c r="L185" s="63">
-        <v>2033651.6149627392</v>
+        <v>1977972.9908203934</v>
       </c>
       <c r="M185" s="8"/>
       <c r="N185" s="8"/>
@@ -8120,7 +8123,7 @@
       </c>
       <c r="H186" s="67">
         <f>+H184*H66</f>
-        <v>216726.37678159561</v>
+        <v>210792.70240700219</v>
       </c>
       <c r="I186" s="67">
         <f t="shared" ref="I186:L186" si="43">+I184*I66</f>
@@ -8128,7 +8131,7 @@
       </c>
       <c r="J186" s="67">
         <f t="shared" si="43"/>
-        <v>425341.57337379496</v>
+        <v>419407.89899920154</v>
       </c>
       <c r="K186" s="67">
         <f t="shared" si="43"/>
@@ -8136,7 +8139,7 @@
       </c>
       <c r="L186" s="67">
         <f t="shared" si="43"/>
-        <v>457701.39298692381</v>
+        <v>437550.67443467351</v>
       </c>
       <c r="M186" s="8"/>
       <c r="N186" s="8"/>
@@ -8163,19 +8166,19 @@
       </c>
       <c r="H187" s="57" cm="1">
         <f t="array" ref="H187:L187">+FORTax*H71</f>
-        <v>1600503.2781482879</v>
+        <v>1556683.6682372543</v>
       </c>
       <c r="I187" s="57">
         <v>2687493.3965304983</v>
       </c>
       <c r="J187" s="63">
-        <v>3141106.2770801582</v>
+        <v>3097286.6671691248</v>
       </c>
       <c r="K187" s="57">
         <v>3307534.4492235319</v>
       </c>
       <c r="L187" s="63">
-        <v>3380080.4072262682</v>
+        <v>3231269.3045868278</v>
       </c>
       <c r="M187" s="8"/>
       <c r="N187" s="8"/>
@@ -8202,23 +8205,23 @@
       </c>
       <c r="H188" s="82">
         <f>+SUM(H185:H187)</f>
-        <v>3850881.2698926227</v>
+        <v>3745449.3614646494</v>
       </c>
       <c r="I188" s="82">
         <f t="shared" ref="I188:L188" si="44">+SUM(I185:I187)</f>
-        <v>5085062.2332863659</v>
+        <v>5029383.609144019</v>
       </c>
       <c r="J188" s="82">
         <f t="shared" si="44"/>
-        <v>5600099.4654166922</v>
+        <v>5494667.5569887199</v>
       </c>
       <c r="K188" s="82">
         <f t="shared" si="44"/>
-        <v>5789063.9080166612</v>
+        <v>5733385.2838743161</v>
       </c>
       <c r="L188" s="82">
         <f t="shared" si="44"/>
-        <v>5871433.4151759315</v>
+        <v>5646792.9698418947</v>
       </c>
       <c r="M188" s="8"/>
       <c r="N188" s="8"/>
@@ -8413,23 +8416,23 @@
       </c>
       <c r="H193" s="68">
         <f t="shared" ref="H193:L193" si="47">+H188+H192</f>
-        <v>1361881.2698926227</v>
+        <v>1256449.3614646494</v>
       </c>
       <c r="I193" s="68">
         <f t="shared" si="47"/>
-        <v>2596062.2332863659</v>
+        <v>2540383.609144019</v>
       </c>
       <c r="J193" s="68">
         <f t="shared" si="47"/>
-        <v>3111099.4654166922</v>
+        <v>3005667.5569887199</v>
       </c>
       <c r="K193" s="68">
         <f t="shared" si="47"/>
-        <v>3300063.9080166612</v>
+        <v>3244385.2838743161</v>
       </c>
       <c r="L193" s="68">
         <f t="shared" si="47"/>
-        <v>3382433.4151759315</v>
+        <v>3157792.9698418947</v>
       </c>
       <c r="M193" s="8"/>
       <c r="N193" s="8"/>
@@ -8459,23 +8462,23 @@
       </c>
       <c r="H194" s="70">
         <f>+H184-H193</f>
-        <v>20516484.730107378</v>
+        <v>20022916.638535351</v>
       </c>
       <c r="I194" s="70">
         <f t="shared" ref="I194:L194" si="48">+I184-I193</f>
-        <v>34141109.726713635</v>
+        <v>34196788.350855984</v>
       </c>
       <c r="J194" s="70">
         <f t="shared" si="48"/>
-        <v>39826814.947583303</v>
+        <v>39333246.856011271</v>
       </c>
       <c r="K194" s="70">
         <f t="shared" si="48"/>
-        <v>41912870.189464338</v>
+        <v>41968548.813606679</v>
       </c>
       <c r="L194" s="70">
         <f t="shared" si="48"/>
-        <v>42822180.638650306</v>
+        <v>41012621.083984338</v>
       </c>
       <c r="M194" s="8"/>
       <c r="N194" s="8"/>
@@ -11071,7 +11074,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11118,7 +11121,9 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -11192,24 +11197,24 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="102" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="102">
+      <c r="A2" s="101">
         <v>45401</v>
       </c>
       <c r="B2">
@@ -11228,7 +11233,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="102">
+      <c r="A3" s="101">
         <v>45400</v>
       </c>
       <c r="B3">
@@ -11247,7 +11252,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="102">
+      <c r="A4" s="101">
         <v>45399</v>
       </c>
       <c r="B4">
@@ -11266,7 +11271,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="102">
+      <c r="A5" s="101">
         <v>45398</v>
       </c>
       <c r="B5">
@@ -11285,7 +11290,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="102">
+      <c r="A6" s="101">
         <v>45397</v>
       </c>
       <c r="B6">
@@ -11304,7 +11309,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="102">
+      <c r="A7" s="101">
         <v>45394</v>
       </c>
       <c r="B7">
@@ -11323,7 +11328,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="102">
+      <c r="A8" s="101">
         <v>45393</v>
       </c>
       <c r="B8">
@@ -11342,7 +11347,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="102">
+      <c r="A9" s="101">
         <v>45392</v>
       </c>
       <c r="B9">
@@ -11361,7 +11366,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="102">
+      <c r="A10" s="101">
         <v>45391</v>
       </c>
       <c r="B10">
@@ -11380,7 +11385,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="102">
+      <c r="A11" s="101">
         <v>45390</v>
       </c>
       <c r="B11">
@@ -11399,7 +11404,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="102">
+      <c r="A12" s="101">
         <v>45387</v>
       </c>
       <c r="B12">
@@ -11418,7 +11423,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="102">
+      <c r="A13" s="101">
         <v>45386</v>
       </c>
       <c r="B13">
@@ -11437,7 +11442,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="102">
+      <c r="A14" s="101">
         <v>45385</v>
       </c>
       <c r="B14">
@@ -11456,7 +11461,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="102">
+      <c r="A15" s="101">
         <v>45384</v>
       </c>
       <c r="B15">
@@ -11475,7 +11480,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="102">
+      <c r="A16" s="101">
         <v>45383</v>
       </c>
       <c r="B16">
@@ -11494,7 +11499,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="102">
+      <c r="A17" s="101">
         <v>45379</v>
       </c>
       <c r="B17">
@@ -11513,7 +11518,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="102">
+      <c r="A18" s="101">
         <v>45378</v>
       </c>
       <c r="B18">
@@ -11532,7 +11537,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="102">
+      <c r="A19" s="101">
         <v>45377</v>
       </c>
       <c r="B19">
@@ -11551,7 +11556,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="102">
+      <c r="A20" s="101">
         <v>45376</v>
       </c>
       <c r="B20">
@@ -11570,7 +11575,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="102">
+      <c r="A21" s="101">
         <v>45373</v>
       </c>
       <c r="B21">
@@ -11589,7 +11594,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="102">
+      <c r="A22" s="101">
         <v>45372</v>
       </c>
       <c r="B22">
@@ -11608,7 +11613,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="102">
+      <c r="A23" s="101">
         <v>45371</v>
       </c>
       <c r="B23">
@@ -11627,7 +11632,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="102">
+      <c r="A24" s="101">
         <v>45370</v>
       </c>
       <c r="B24">
@@ -11646,7 +11651,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="102">
+      <c r="A25" s="101">
         <v>45369</v>
       </c>
       <c r="B25">
@@ -11665,7 +11670,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="102">
+      <c r="A26" s="101">
         <v>45366</v>
       </c>
       <c r="B26">
@@ -11684,7 +11689,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="102">
+      <c r="A27" s="101">
         <v>45365</v>
       </c>
       <c r="B27">
@@ -11703,7 +11708,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="102">
+      <c r="A28" s="101">
         <v>45364</v>
       </c>
       <c r="B28">
@@ -11722,7 +11727,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="102">
+      <c r="A29" s="101">
         <v>45363</v>
       </c>
       <c r="B29">
@@ -11741,7 +11746,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="102">
+      <c r="A30" s="101">
         <v>45362</v>
       </c>
       <c r="B30">
@@ -11760,7 +11765,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="102">
+      <c r="A31" s="101">
         <v>45359</v>
       </c>
       <c r="B31">
@@ -11779,7 +11784,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="102">
+      <c r="A32" s="101">
         <v>45358</v>
       </c>
       <c r="B32">
@@ -11798,7 +11803,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="102">
+      <c r="A33" s="101">
         <v>45357</v>
       </c>
       <c r="B33">
@@ -11817,7 +11822,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="102">
+      <c r="A34" s="101">
         <v>45356</v>
       </c>
       <c r="B34">
@@ -11836,7 +11841,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="102">
+      <c r="A35" s="101">
         <v>45355</v>
       </c>
       <c r="B35">
@@ -11855,7 +11860,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="102">
+      <c r="A36" s="101">
         <v>45352</v>
       </c>
       <c r="B36">
@@ -11874,7 +11879,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="102">
+      <c r="A37" s="101">
         <v>45351</v>
       </c>
       <c r="B37">
@@ -11893,7 +11898,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="102">
+      <c r="A38" s="101">
         <v>45350</v>
       </c>
       <c r="B38">
@@ -11912,7 +11917,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="102">
+      <c r="A39" s="101">
         <v>45349</v>
       </c>
       <c r="B39">
@@ -11931,7 +11936,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="102">
+      <c r="A40" s="101">
         <v>45348</v>
       </c>
       <c r="B40">
@@ -11950,7 +11955,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="102">
+      <c r="A41" s="101">
         <v>45345</v>
       </c>
       <c r="B41">
@@ -11969,7 +11974,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="102">
+      <c r="A42" s="101">
         <v>45344</v>
       </c>
       <c r="B42">
@@ -11988,7 +11993,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="102">
+      <c r="A43" s="101">
         <v>45343</v>
       </c>
       <c r="B43">
@@ -12007,7 +12012,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="102">
+      <c r="A44" s="101">
         <v>45342</v>
       </c>
       <c r="B44">
@@ -12026,7 +12031,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="102">
+      <c r="A45" s="101">
         <v>45338</v>
       </c>
       <c r="B45">
@@ -12045,7 +12050,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="102">
+      <c r="A46" s="101">
         <v>45337</v>
       </c>
       <c r="B46">
@@ -12064,7 +12069,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="102">
+      <c r="A47" s="101">
         <v>45336</v>
       </c>
       <c r="B47">
@@ -12083,7 +12088,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="102">
+      <c r="A48" s="101">
         <v>45335</v>
       </c>
       <c r="B48">
@@ -12102,7 +12107,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="102">
+      <c r="A49" s="101">
         <v>45334</v>
       </c>
       <c r="B49">
@@ -12121,7 +12126,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="102">
+      <c r="A50" s="101">
         <v>45331</v>
       </c>
       <c r="B50">
@@ -12140,7 +12145,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="102">
+      <c r="A51" s="101">
         <v>45330</v>
       </c>
       <c r="B51">
@@ -12159,7 +12164,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="102">
+      <c r="A52" s="101">
         <v>45329</v>
       </c>
       <c r="B52">
@@ -12178,7 +12183,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="102">
+      <c r="A53" s="101">
         <v>45328</v>
       </c>
       <c r="B53">
@@ -12197,7 +12202,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="102">
+      <c r="A54" s="101">
         <v>45327</v>
       </c>
       <c r="B54">
@@ -12216,7 +12221,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="102">
+      <c r="A55" s="101">
         <v>45324</v>
       </c>
       <c r="B55">
@@ -12235,7 +12240,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="102">
+      <c r="A56" s="101">
         <v>45323</v>
       </c>
       <c r="B56">
@@ -12254,7 +12259,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="102">
+      <c r="A57" s="101">
         <v>45322</v>
       </c>
       <c r="B57">
@@ -12273,7 +12278,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="102">
+      <c r="A58" s="101">
         <v>45321</v>
       </c>
       <c r="B58">
@@ -12292,7 +12297,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="102">
+      <c r="A59" s="101">
         <v>45320</v>
       </c>
       <c r="B59">
@@ -12311,7 +12316,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="102">
+      <c r="A60" s="101">
         <v>45317</v>
       </c>
       <c r="B60">
@@ -12330,7 +12335,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="102">
+      <c r="A61" s="101">
         <v>45316</v>
       </c>
       <c r="B61">
@@ -12349,7 +12354,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="102">
+      <c r="A62" s="101">
         <v>45315</v>
       </c>
       <c r="B62">
@@ -12368,7 +12373,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="102">
+      <c r="A63" s="101">
         <v>45314</v>
       </c>
       <c r="B63">
@@ -12387,7 +12392,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="102">
+      <c r="A64" s="101">
         <v>45313</v>
       </c>
       <c r="B64">
@@ -12406,7 +12411,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="102">
+      <c r="A65" s="101">
         <v>45310</v>
       </c>
       <c r="B65">
@@ -12425,7 +12430,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="102">
+      <c r="A66" s="101">
         <v>45309</v>
       </c>
       <c r="B66">
@@ -12444,7 +12449,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="102">
+      <c r="A67" s="101">
         <v>45308</v>
       </c>
       <c r="B67">
@@ -12463,7 +12468,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="102">
+      <c r="A68" s="101">
         <v>45307</v>
       </c>
       <c r="B68">
@@ -12482,7 +12487,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="102">
+      <c r="A69" s="101">
         <v>45303</v>
       </c>
       <c r="B69">
@@ -12501,7 +12506,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="102">
+      <c r="A70" s="101">
         <v>45302</v>
       </c>
       <c r="B70">
@@ -12520,7 +12525,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="102">
+      <c r="A71" s="101">
         <v>45301</v>
       </c>
       <c r="B71">
@@ -12539,7 +12544,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="102">
+      <c r="A72" s="101">
         <v>45300</v>
       </c>
       <c r="B72">
@@ -12558,7 +12563,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="102">
+      <c r="A73" s="101">
         <v>45299</v>
       </c>
       <c r="B73">
@@ -12577,7 +12582,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="102">
+      <c r="A74" s="101">
         <v>45296</v>
       </c>
       <c r="B74">
@@ -12596,7 +12601,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="102">
+      <c r="A75" s="101">
         <v>45295</v>
       </c>
       <c r="B75">
@@ -12615,7 +12620,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="102">
+      <c r="A76" s="101">
         <v>45294</v>
       </c>
       <c r="B76">
@@ -12634,7 +12639,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="102">
+      <c r="A77" s="101">
         <v>45293</v>
       </c>
       <c r="B77">
@@ -12653,7 +12658,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="102">
+      <c r="A78" s="101">
         <v>45289</v>
       </c>
       <c r="B78">
@@ -12672,7 +12677,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="102">
+      <c r="A79" s="101">
         <v>45288</v>
       </c>
       <c r="B79">
@@ -12691,7 +12696,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="102">
+      <c r="A80" s="101">
         <v>45287</v>
       </c>
       <c r="B80">
@@ -12710,7 +12715,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="102">
+      <c r="A81" s="101">
         <v>45286</v>
       </c>
       <c r="B81">
@@ -12729,7 +12734,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="102">
+      <c r="A82" s="101">
         <v>45282</v>
       </c>
       <c r="B82">
@@ -12748,7 +12753,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="102">
+      <c r="A83" s="101">
         <v>45281</v>
       </c>
       <c r="B83">
@@ -12767,7 +12772,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="102">
+      <c r="A84" s="101">
         <v>45280</v>
       </c>
       <c r="B84">
@@ -12786,7 +12791,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="102">
+      <c r="A85" s="101">
         <v>45279</v>
       </c>
       <c r="B85">
@@ -12805,7 +12810,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="102">
+      <c r="A86" s="101">
         <v>45278</v>
       </c>
       <c r="B86">
@@ -12824,7 +12829,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="102">
+      <c r="A87" s="101">
         <v>45275</v>
       </c>
       <c r="B87">
@@ -12843,7 +12848,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="102">
+      <c r="A88" s="101">
         <v>45274</v>
       </c>
       <c r="B88">
@@ -12862,7 +12867,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="102">
+      <c r="A89" s="101">
         <v>45273</v>
       </c>
       <c r="B89">
@@ -12881,7 +12886,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="102">
+      <c r="A90" s="101">
         <v>45272</v>
       </c>
       <c r="B90">
@@ -12900,7 +12905,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="102">
+      <c r="A91" s="101">
         <v>45271</v>
       </c>
       <c r="B91">
@@ -12919,7 +12924,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="102">
+      <c r="A92" s="101">
         <v>45268</v>
       </c>
       <c r="B92">
@@ -12938,7 +12943,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="102">
+      <c r="A93" s="101">
         <v>45267</v>
       </c>
       <c r="B93">
@@ -12957,7 +12962,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="102">
+      <c r="A94" s="101">
         <v>45266</v>
       </c>
       <c r="B94">
@@ -12976,7 +12981,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="102">
+      <c r="A95" s="101">
         <v>45265</v>
       </c>
       <c r="B95">
@@ -12995,7 +13000,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="102">
+      <c r="A96" s="101">
         <v>45264</v>
       </c>
       <c r="B96">
@@ -13014,7 +13019,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="102">
+      <c r="A97" s="101">
         <v>45261</v>
       </c>
       <c r="B97">
@@ -13033,7 +13038,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="102">
+      <c r="A98" s="101">
         <v>45260</v>
       </c>
       <c r="B98">
@@ -13052,7 +13057,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="102">
+      <c r="A99" s="101">
         <v>45259</v>
       </c>
       <c r="B99">
@@ -13071,7 +13076,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="102">
+      <c r="A100" s="101">
         <v>45258</v>
       </c>
       <c r="B100">
@@ -13090,7 +13095,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="102">
+      <c r="A101" s="101">
         <v>45257</v>
       </c>
       <c r="B101">
@@ -13109,7 +13114,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="102">
+      <c r="A102" s="101">
         <v>45254</v>
       </c>
       <c r="B102">
@@ -13128,7 +13133,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="102">
+      <c r="A103" s="101">
         <v>45252</v>
       </c>
       <c r="B103">
@@ -13147,7 +13152,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="102">
+      <c r="A104" s="101">
         <v>45251</v>
       </c>
       <c r="B104">
@@ -13166,7 +13171,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="102">
+      <c r="A105" s="101">
         <v>45250</v>
       </c>
       <c r="B105">
@@ -13185,7 +13190,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="102">
+      <c r="A106" s="101">
         <v>45247</v>
       </c>
       <c r="B106">
@@ -13204,7 +13209,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="102">
+      <c r="A107" s="101">
         <v>45246</v>
       </c>
       <c r="B107">
@@ -13223,7 +13228,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="102">
+      <c r="A108" s="101">
         <v>45245</v>
       </c>
       <c r="B108">
@@ -13242,7 +13247,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="102">
+      <c r="A109" s="101">
         <v>45244</v>
       </c>
       <c r="B109">
@@ -13261,7 +13266,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="102">
+      <c r="A110" s="101">
         <v>45243</v>
       </c>
       <c r="B110">
@@ -13280,7 +13285,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="102">
+      <c r="A111" s="101">
         <v>45240</v>
       </c>
       <c r="B111">
@@ -13299,7 +13304,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="102">
+      <c r="A112" s="101">
         <v>45239</v>
       </c>
       <c r="B112">
@@ -13318,7 +13323,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="102">
+      <c r="A113" s="101">
         <v>45238</v>
       </c>
       <c r="B113">
@@ -13337,7 +13342,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="102">
+      <c r="A114" s="101">
         <v>45237</v>
       </c>
       <c r="B114">
@@ -13356,7 +13361,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="102">
+      <c r="A115" s="101">
         <v>45236</v>
       </c>
       <c r="B115">
@@ -13375,7 +13380,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="102">
+      <c r="A116" s="101">
         <v>45233</v>
       </c>
       <c r="B116">
@@ -13394,7 +13399,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="102">
+      <c r="A117" s="101">
         <v>45232</v>
       </c>
       <c r="B117">
@@ -13413,7 +13418,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="102">
+      <c r="A118" s="101">
         <v>45231</v>
       </c>
       <c r="B118">
@@ -13432,7 +13437,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="102">
+      <c r="A119" s="101">
         <v>45230</v>
       </c>
       <c r="B119">
@@ -13451,7 +13456,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="102">
+      <c r="A120" s="101">
         <v>45229</v>
       </c>
       <c r="B120">
@@ -13470,7 +13475,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="102">
+      <c r="A121" s="101">
         <v>45226</v>
       </c>
       <c r="B121">
@@ -13489,7 +13494,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="102">
+      <c r="A122" s="101">
         <v>45225</v>
       </c>
       <c r="B122">
@@ -13508,7 +13513,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="102">
+      <c r="A123" s="101">
         <v>45224</v>
       </c>
       <c r="B123">
@@ -13527,7 +13532,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="102">
+      <c r="A124" s="101">
         <v>45223</v>
       </c>
       <c r="B124">
@@ -13546,7 +13551,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="102">
+      <c r="A125" s="101">
         <v>45222</v>
       </c>
       <c r="B125">
@@ -13565,7 +13570,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="102">
+      <c r="A126" s="101">
         <v>45219</v>
       </c>
       <c r="B126">
@@ -13584,7 +13589,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="102">
+      <c r="A127" s="101">
         <v>45218</v>
       </c>
       <c r="B127">
@@ -13603,7 +13608,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="102">
+      <c r="A128" s="101">
         <v>45217</v>
       </c>
       <c r="B128">
@@ -13622,7 +13627,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="102">
+      <c r="A129" s="101">
         <v>45216</v>
       </c>
       <c r="B129">
@@ -13641,7 +13646,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="102">
+      <c r="A130" s="101">
         <v>45215</v>
       </c>
       <c r="B130">
@@ -13660,7 +13665,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="102">
+      <c r="A131" s="101">
         <v>45212</v>
       </c>
       <c r="B131">
@@ -13679,7 +13684,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="102">
+      <c r="A132" s="101">
         <v>45211</v>
       </c>
       <c r="B132">
@@ -13698,7 +13703,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="102">
+      <c r="A133" s="101">
         <v>45210</v>
       </c>
       <c r="B133">
@@ -13717,7 +13722,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="102">
+      <c r="A134" s="101">
         <v>45209</v>
       </c>
       <c r="B134">
@@ -13736,7 +13741,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="102">
+      <c r="A135" s="101">
         <v>45208</v>
       </c>
       <c r="B135">
@@ -13755,7 +13760,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="102">
+      <c r="A136" s="101">
         <v>45205</v>
       </c>
       <c r="B136">
@@ -13774,7 +13779,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="102">
+      <c r="A137" s="101">
         <v>45204</v>
       </c>
       <c r="B137">
@@ -13793,7 +13798,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="102">
+      <c r="A138" s="101">
         <v>45203</v>
       </c>
       <c r="B138">
@@ -13812,7 +13817,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="102">
+      <c r="A139" s="101">
         <v>45202</v>
       </c>
       <c r="B139">
@@ -13831,7 +13836,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="102">
+      <c r="A140" s="101">
         <v>45201</v>
       </c>
       <c r="B140">
@@ -13850,7 +13855,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="102">
+      <c r="A141" s="101">
         <v>45198</v>
       </c>
       <c r="B141">
@@ -13869,7 +13874,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="102">
+      <c r="A142" s="101">
         <v>45197</v>
       </c>
       <c r="B142">
@@ -13888,7 +13893,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="102">
+      <c r="A143" s="101">
         <v>45196</v>
       </c>
       <c r="B143">
@@ -13907,7 +13912,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="102">
+      <c r="A144" s="101">
         <v>45195</v>
       </c>
       <c r="B144">
@@ -13926,7 +13931,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="102">
+      <c r="A145" s="101">
         <v>45194</v>
       </c>
       <c r="B145">
@@ -13945,7 +13950,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="102">
+      <c r="A146" s="101">
         <v>45191</v>
       </c>
       <c r="B146">
@@ -13964,7 +13969,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="102">
+      <c r="A147" s="101">
         <v>45190</v>
       </c>
       <c r="B147">
@@ -13983,7 +13988,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="102">
+      <c r="A148" s="101">
         <v>45189</v>
       </c>
       <c r="B148">
@@ -14002,7 +14007,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="102">
+      <c r="A149" s="101">
         <v>45188</v>
       </c>
       <c r="B149">
@@ -14021,7 +14026,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="102">
+      <c r="A150" s="101">
         <v>45187</v>
       </c>
       <c r="B150">
@@ -14040,7 +14045,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="102">
+      <c r="A151" s="101">
         <v>45184</v>
       </c>
       <c r="B151">
@@ -14059,7 +14064,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="102">
+      <c r="A152" s="101">
         <v>45183</v>
       </c>
       <c r="B152">
@@ -14078,7 +14083,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="102">
+      <c r="A153" s="101">
         <v>45182</v>
       </c>
       <c r="B153">
@@ -14097,7 +14102,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="102">
+      <c r="A154" s="101">
         <v>45181</v>
       </c>
       <c r="B154">
@@ -14116,7 +14121,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="102">
+      <c r="A155" s="101">
         <v>45180</v>
       </c>
       <c r="B155">
@@ -14135,7 +14140,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="102">
+      <c r="A156" s="101">
         <v>45177</v>
       </c>
       <c r="B156">
@@ -14154,7 +14159,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="102">
+      <c r="A157" s="101">
         <v>45176</v>
       </c>
       <c r="B157">
@@ -14173,7 +14178,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="102">
+      <c r="A158" s="101">
         <v>45175</v>
       </c>
       <c r="B158">
@@ -14192,7 +14197,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="102">
+      <c r="A159" s="101">
         <v>45174</v>
       </c>
       <c r="B159">
@@ -14211,7 +14216,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="102">
+      <c r="A160" s="101">
         <v>45170</v>
       </c>
       <c r="B160">
@@ -14230,7 +14235,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="102">
+      <c r="A161" s="101">
         <v>45169</v>
       </c>
       <c r="B161">
@@ -14249,7 +14254,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="102">
+      <c r="A162" s="101">
         <v>45168</v>
       </c>
       <c r="B162">
@@ -14268,7 +14273,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="102">
+      <c r="A163" s="101">
         <v>45167</v>
       </c>
       <c r="B163">
@@ -14287,7 +14292,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="102">
+      <c r="A164" s="101">
         <v>45166</v>
       </c>
       <c r="B164">
@@ -14306,7 +14311,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="102">
+      <c r="A165" s="101">
         <v>45163</v>
       </c>
       <c r="B165">
@@ -14325,7 +14330,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="102">
+      <c r="A166" s="101">
         <v>45162</v>
       </c>
       <c r="B166">
@@ -14344,7 +14349,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="102">
+      <c r="A167" s="101">
         <v>45161</v>
       </c>
       <c r="B167">
@@ -14363,7 +14368,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="102">
+      <c r="A168" s="101">
         <v>45160</v>
       </c>
       <c r="B168">
@@ -14382,7 +14387,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="102">
+      <c r="A169" s="101">
         <v>45159</v>
       </c>
       <c r="B169">
@@ -14401,7 +14406,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="102">
+      <c r="A170" s="101">
         <v>45156</v>
       </c>
       <c r="B170">
@@ -14420,7 +14425,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="102">
+      <c r="A171" s="101">
         <v>45155</v>
       </c>
       <c r="B171">
@@ -14439,7 +14444,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="102">
+      <c r="A172" s="101">
         <v>45154</v>
       </c>
       <c r="B172">
@@ -14458,7 +14463,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="102">
+      <c r="A173" s="101">
         <v>45153</v>
       </c>
       <c r="B173">
@@ -14477,7 +14482,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="102">
+      <c r="A174" s="101">
         <v>45152</v>
       </c>
       <c r="B174">
@@ -14496,7 +14501,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="102">
+      <c r="A175" s="101">
         <v>45149</v>
       </c>
       <c r="B175">
@@ -14515,7 +14520,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="102">
+      <c r="A176" s="101">
         <v>45148</v>
       </c>
       <c r="B176">
@@ -14534,7 +14539,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="102">
+      <c r="A177" s="101">
         <v>45147</v>
       </c>
       <c r="B177">
@@ -14553,7 +14558,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="102">
+      <c r="A178" s="101">
         <v>45146</v>
       </c>
       <c r="B178">
@@ -14572,7 +14577,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="102">
+      <c r="A179" s="101">
         <v>45145</v>
       </c>
       <c r="B179">
@@ -14591,7 +14596,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="102">
+      <c r="A180" s="101">
         <v>45142</v>
       </c>
       <c r="B180">
@@ -14610,7 +14615,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="102">
+      <c r="A181" s="101">
         <v>45141</v>
       </c>
       <c r="B181">
@@ -14629,7 +14634,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="102">
+      <c r="A182" s="101">
         <v>45140</v>
       </c>
       <c r="B182">
@@ -14648,7 +14653,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="102">
+      <c r="A183" s="101">
         <v>45139</v>
       </c>
       <c r="B183">
@@ -14667,7 +14672,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="102">
+      <c r="A184" s="101">
         <v>45138</v>
       </c>
       <c r="B184">
@@ -14686,7 +14691,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="102">
+      <c r="A185" s="101">
         <v>45135</v>
       </c>
       <c r="B185">
@@ -14705,7 +14710,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="102">
+      <c r="A186" s="101">
         <v>45134</v>
       </c>
       <c r="B186">
@@ -14724,7 +14729,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="102">
+      <c r="A187" s="101">
         <v>45133</v>
       </c>
       <c r="B187">
@@ -14743,7 +14748,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="102">
+      <c r="A188" s="101">
         <v>45132</v>
       </c>
       <c r="B188">
@@ -14762,7 +14767,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="102">
+      <c r="A189" s="101">
         <v>45131</v>
       </c>
       <c r="B189">
@@ -14781,7 +14786,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="102">
+      <c r="A190" s="101">
         <v>45128</v>
       </c>
       <c r="B190">
@@ -14800,7 +14805,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="102">
+      <c r="A191" s="101">
         <v>45127</v>
       </c>
       <c r="B191">
@@ -14819,7 +14824,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="102">
+      <c r="A192" s="101">
         <v>45126</v>
       </c>
       <c r="B192">
@@ -14838,7 +14843,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="102">
+      <c r="A193" s="101">
         <v>45125</v>
       </c>
       <c r="B193">
@@ -14857,7 +14862,7 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="102">
+      <c r="A194" s="101">
         <v>45124</v>
       </c>
       <c r="B194">
@@ -14876,7 +14881,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="102">
+      <c r="A195" s="101">
         <v>45121</v>
       </c>
       <c r="B195">
@@ -14895,7 +14900,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="102">
+      <c r="A196" s="101">
         <v>45120</v>
       </c>
       <c r="B196">
@@ -14914,7 +14919,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="102">
+      <c r="A197" s="101">
         <v>45119</v>
       </c>
       <c r="B197">
@@ -14933,7 +14938,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="102">
+      <c r="A198" s="101">
         <v>45118</v>
       </c>
       <c r="B198">
@@ -14952,7 +14957,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="102">
+      <c r="A199" s="101">
         <v>45117</v>
       </c>
       <c r="B199">
@@ -14971,7 +14976,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="102">
+      <c r="A200" s="101">
         <v>45114</v>
       </c>
       <c r="B200">
@@ -14990,7 +14995,7 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="102">
+      <c r="A201" s="101">
         <v>45113</v>
       </c>
       <c r="B201">
@@ -15009,7 +15014,7 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="102">
+      <c r="A202" s="101">
         <v>45112</v>
       </c>
       <c r="B202">
@@ -15028,7 +15033,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="102">
+      <c r="A203" s="101">
         <v>45110</v>
       </c>
       <c r="B203">
@@ -15047,7 +15052,7 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="102">
+      <c r="A204" s="101">
         <v>45107</v>
       </c>
       <c r="B204">
@@ -15066,7 +15071,7 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="102">
+      <c r="A205" s="101">
         <v>45106</v>
       </c>
       <c r="B205">
@@ -15085,7 +15090,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="102">
+      <c r="A206" s="101">
         <v>45105</v>
       </c>
       <c r="B206">
@@ -15104,7 +15109,7 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="102">
+      <c r="A207" s="101">
         <v>45104</v>
       </c>
       <c r="B207">
@@ -15123,7 +15128,7 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="102">
+      <c r="A208" s="101">
         <v>45103</v>
       </c>
       <c r="B208">
@@ -15142,7 +15147,7 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="102">
+      <c r="A209" s="101">
         <v>45100</v>
       </c>
       <c r="B209">
@@ -15161,7 +15166,7 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="102">
+      <c r="A210" s="101">
         <v>45099</v>
       </c>
       <c r="B210">
@@ -15180,7 +15185,7 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="102">
+      <c r="A211" s="101">
         <v>45098</v>
       </c>
       <c r="B211">
@@ -15199,7 +15204,7 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="102">
+      <c r="A212" s="101">
         <v>45097</v>
       </c>
       <c r="B212">
@@ -15218,7 +15223,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="102">
+      <c r="A213" s="101">
         <v>45093</v>
       </c>
       <c r="B213">
@@ -15237,7 +15242,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="102">
+      <c r="A214" s="101">
         <v>45092</v>
       </c>
       <c r="B214">
@@ -15256,7 +15261,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="102">
+      <c r="A215" s="101">
         <v>45091</v>
       </c>
       <c r="B215">
@@ -15275,7 +15280,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="102">
+      <c r="A216" s="101">
         <v>45090</v>
       </c>
       <c r="B216">
@@ -15294,7 +15299,7 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="102">
+      <c r="A217" s="101">
         <v>45089</v>
       </c>
       <c r="B217">
@@ -15313,7 +15318,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="102">
+      <c r="A218" s="101">
         <v>45086</v>
       </c>
       <c r="B218">
@@ -15332,7 +15337,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="102">
+      <c r="A219" s="101">
         <v>45085</v>
       </c>
       <c r="B219">
@@ -15351,7 +15356,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="102">
+      <c r="A220" s="101">
         <v>45084</v>
       </c>
       <c r="B220">
@@ -15370,7 +15375,7 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="102">
+      <c r="A221" s="101">
         <v>45083</v>
       </c>
       <c r="B221">
@@ -15389,7 +15394,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="102">
+      <c r="A222" s="101">
         <v>45082</v>
       </c>
       <c r="B222">
@@ -15408,7 +15413,7 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="102">
+      <c r="A223" s="101">
         <v>45079</v>
       </c>
       <c r="B223">
@@ -15427,7 +15432,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="102">
+      <c r="A224" s="101">
         <v>45078</v>
       </c>
       <c r="B224">
@@ -15446,7 +15451,7 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="102">
+      <c r="A225" s="101">
         <v>45077</v>
       </c>
       <c r="B225">
@@ -15465,7 +15470,7 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="102">
+      <c r="A226" s="101">
         <v>45076</v>
       </c>
       <c r="B226">
@@ -15484,7 +15489,7 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="102">
+      <c r="A227" s="101">
         <v>45072</v>
       </c>
       <c r="B227">
@@ -15503,7 +15508,7 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="102">
+      <c r="A228" s="101">
         <v>45071</v>
       </c>
       <c r="B228">
@@ -15522,7 +15527,7 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="102">
+      <c r="A229" s="101">
         <v>45070</v>
       </c>
       <c r="B229">
@@ -15541,7 +15546,7 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="102">
+      <c r="A230" s="101">
         <v>45069</v>
       </c>
       <c r="B230">
@@ -15560,7 +15565,7 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="102">
+      <c r="A231" s="101">
         <v>45068</v>
       </c>
       <c r="B231">
@@ -15579,7 +15584,7 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="102">
+      <c r="A232" s="101">
         <v>45065</v>
       </c>
       <c r="B232">
@@ -15598,7 +15603,7 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="102">
+      <c r="A233" s="101">
         <v>45064</v>
       </c>
       <c r="B233">
@@ -15617,7 +15622,7 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="102">
+      <c r="A234" s="101">
         <v>45063</v>
       </c>
       <c r="B234">
@@ -15636,7 +15641,7 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="102">
+      <c r="A235" s="101">
         <v>45062</v>
       </c>
       <c r="B235">
@@ -15655,7 +15660,7 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="102">
+      <c r="A236" s="101">
         <v>45061</v>
       </c>
       <c r="B236">
@@ -15674,7 +15679,7 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="102">
+      <c r="A237" s="101">
         <v>45058</v>
       </c>
       <c r="B237">
@@ -15693,7 +15698,7 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="102">
+      <c r="A238" s="101">
         <v>45057</v>
       </c>
       <c r="B238">
@@ -15712,7 +15717,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="102">
+      <c r="A239" s="101">
         <v>45056</v>
       </c>
       <c r="B239">
@@ -15731,7 +15736,7 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="102">
+      <c r="A240" s="101">
         <v>45055</v>
       </c>
       <c r="B240">
@@ -15750,7 +15755,7 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="102">
+      <c r="A241" s="101">
         <v>45054</v>
       </c>
       <c r="B241">
@@ -15769,7 +15774,7 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="102">
+      <c r="A242" s="101">
         <v>45051</v>
       </c>
       <c r="B242">
@@ -15788,7 +15793,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="102">
+      <c r="A243" s="101">
         <v>45050</v>
       </c>
       <c r="B243">
@@ -15807,7 +15812,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="102">
+      <c r="A244" s="101">
         <v>45049</v>
       </c>
       <c r="B244">
@@ -15826,7 +15831,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="102">
+      <c r="A245" s="101">
         <v>45048</v>
       </c>
       <c r="B245">
@@ -15845,7 +15850,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="102">
+      <c r="A246" s="101">
         <v>45047</v>
       </c>
       <c r="B246">
@@ -15864,7 +15869,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="102">
+      <c r="A247" s="101">
         <v>45044</v>
       </c>
       <c r="B247">
@@ -15883,7 +15888,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="102">
+      <c r="A248" s="101">
         <v>45043</v>
       </c>
       <c r="B248">
@@ -15902,7 +15907,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="102">
+      <c r="A249" s="101">
         <v>45042</v>
       </c>
       <c r="B249">
@@ -15921,7 +15926,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="102">
+      <c r="A250" s="101">
         <v>45041</v>
       </c>
       <c r="B250">
@@ -15940,7 +15945,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="102">
+      <c r="A251" s="101">
         <v>45040</v>
       </c>
       <c r="B251">
@@ -15959,7 +15964,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="102">
+      <c r="A252" s="101">
         <v>45037</v>
       </c>
       <c r="B252">
@@ -15978,7 +15983,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="102">
+      <c r="A253" s="101">
         <v>45036</v>
       </c>
       <c r="B253">
@@ -15997,7 +16002,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="102">
+      <c r="A254" s="101">
         <v>45035</v>
       </c>
       <c r="B254">
@@ -16016,7 +16021,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="102">
+      <c r="A255" s="101">
         <v>45034</v>
       </c>
       <c r="B255">
@@ -16035,7 +16040,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="102">
+      <c r="A256" s="101">
         <v>45033</v>
       </c>
       <c r="B256">
@@ -16054,7 +16059,7 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="102">
+      <c r="A257" s="101">
         <v>45030</v>
       </c>
       <c r="B257">
@@ -16073,7 +16078,7 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="102">
+      <c r="A258" s="101">
         <v>45029</v>
       </c>
       <c r="B258">
@@ -16092,7 +16097,7 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="102">
+      <c r="A259" s="101">
         <v>45028</v>
       </c>
       <c r="B259">
@@ -16111,7 +16116,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="102">
+      <c r="A260" s="101">
         <v>45027</v>
       </c>
       <c r="B260">
@@ -16130,7 +16135,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="102">
+      <c r="A261" s="101">
         <v>45026</v>
       </c>
       <c r="B261">
@@ -16149,7 +16154,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="102">
+      <c r="A262" s="101">
         <v>45022</v>
       </c>
       <c r="B262">
@@ -16168,7 +16173,7 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="102">
+      <c r="A263" s="101">
         <v>45021</v>
       </c>
       <c r="B263">
@@ -16187,7 +16192,7 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="102">
+      <c r="A264" s="101">
         <v>45020</v>
       </c>
       <c r="B264">
@@ -16206,7 +16211,7 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="102">
+      <c r="A265" s="101">
         <v>45019</v>
       </c>
       <c r="B265">
@@ -16225,7 +16230,7 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="102">
+      <c r="A266" s="101">
         <v>45016</v>
       </c>
       <c r="B266">
@@ -16244,7 +16249,7 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="102">
+      <c r="A267" s="101">
         <v>45015</v>
       </c>
       <c r="B267">
@@ -16263,7 +16268,7 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="102">
+      <c r="A268" s="101">
         <v>45014</v>
       </c>
       <c r="B268">
@@ -16282,7 +16287,7 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="102">
+      <c r="A269" s="101">
         <v>45013</v>
       </c>
       <c r="B269">
@@ -16301,7 +16306,7 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="102">
+      <c r="A270" s="101">
         <v>45012</v>
       </c>
       <c r="B270">
@@ -16320,7 +16325,7 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="102">
+      <c r="A271" s="101">
         <v>45009</v>
       </c>
       <c r="B271">
@@ -16339,7 +16344,7 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="102">
+      <c r="A272" s="101">
         <v>45008</v>
       </c>
       <c r="B272">
@@ -16358,7 +16363,7 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="102">
+      <c r="A273" s="101">
         <v>45007</v>
       </c>
       <c r="B273">
@@ -16377,7 +16382,7 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="102">
+      <c r="A274" s="101">
         <v>45006</v>
       </c>
       <c r="B274">
@@ -16396,7 +16401,7 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="102">
+      <c r="A275" s="101">
         <v>45005</v>
       </c>
       <c r="B275">
@@ -16415,7 +16420,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="102">
+      <c r="A276" s="101">
         <v>45002</v>
       </c>
       <c r="B276">
@@ -16434,7 +16439,7 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="102">
+      <c r="A277" s="101">
         <v>45001</v>
       </c>
       <c r="B277">
@@ -16453,7 +16458,7 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="102">
+      <c r="A278" s="101">
         <v>45000</v>
       </c>
       <c r="B278">
@@ -16472,7 +16477,7 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="102">
+      <c r="A279" s="101">
         <v>44999</v>
       </c>
       <c r="B279">
@@ -16491,7 +16496,7 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="102">
+      <c r="A280" s="101">
         <v>44998</v>
       </c>
       <c r="B280">
@@ -16510,7 +16515,7 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="102">
+      <c r="A281" s="101">
         <v>44995</v>
       </c>
       <c r="B281">
@@ -16529,7 +16534,7 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="102">
+      <c r="A282" s="101">
         <v>44994</v>
       </c>
       <c r="B282">
@@ -16548,7 +16553,7 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="102">
+      <c r="A283" s="101">
         <v>44993</v>
       </c>
       <c r="B283">
@@ -16567,7 +16572,7 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="102">
+      <c r="A284" s="101">
         <v>44992</v>
       </c>
       <c r="B284">
@@ -16586,7 +16591,7 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="102">
+      <c r="A285" s="101">
         <v>44991</v>
       </c>
       <c r="B285">
@@ -16605,7 +16610,7 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="102">
+      <c r="A286" s="101">
         <v>44988</v>
       </c>
       <c r="B286">
@@ -16624,7 +16629,7 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="102">
+      <c r="A287" s="101">
         <v>44987</v>
       </c>
       <c r="B287">
@@ -16643,7 +16648,7 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="102">
+      <c r="A288" s="101">
         <v>44986</v>
       </c>
       <c r="B288">
@@ -16662,7 +16667,7 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="102">
+      <c r="A289" s="101">
         <v>44985</v>
       </c>
       <c r="B289">
@@ -16681,7 +16686,7 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="102">
+      <c r="A290" s="101">
         <v>44984</v>
       </c>
       <c r="B290">
@@ -16700,7 +16705,7 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="102">
+      <c r="A291" s="101">
         <v>44981</v>
       </c>
       <c r="B291">
@@ -16719,7 +16724,7 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="102">
+      <c r="A292" s="101">
         <v>44980</v>
       </c>
       <c r="B292">
@@ -16738,7 +16743,7 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="102">
+      <c r="A293" s="101">
         <v>44979</v>
       </c>
       <c r="B293">
@@ -16757,7 +16762,7 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="102">
+      <c r="A294" s="101">
         <v>44978</v>
       </c>
       <c r="B294">
@@ -16776,7 +16781,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="102">
+      <c r="A295" s="101">
         <v>44974</v>
       </c>
       <c r="B295">
@@ -16795,7 +16800,7 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="102">
+      <c r="A296" s="101">
         <v>44973</v>
       </c>
       <c r="B296">
@@ -16814,7 +16819,7 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="102">
+      <c r="A297" s="101">
         <v>44972</v>
       </c>
       <c r="B297">
@@ -16833,7 +16838,7 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="102">
+      <c r="A298" s="101">
         <v>44971</v>
       </c>
       <c r="B298">
@@ -16852,7 +16857,7 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="102">
+      <c r="A299" s="101">
         <v>44970</v>
       </c>
       <c r="B299">
@@ -16871,7 +16876,7 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="102">
+      <c r="A300" s="101">
         <v>44967</v>
       </c>
       <c r="B300">
@@ -16890,7 +16895,7 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="102">
+      <c r="A301" s="101">
         <v>44966</v>
       </c>
       <c r="B301">
@@ -16909,7 +16914,7 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="102">
+      <c r="A302" s="101">
         <v>44965</v>
       </c>
       <c r="B302">
@@ -16928,7 +16933,7 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="102">
+      <c r="A303" s="101">
         <v>44964</v>
       </c>
       <c r="B303">
@@ -16947,7 +16952,7 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="102">
+      <c r="A304" s="101">
         <v>44963</v>
       </c>
       <c r="B304">
@@ -16966,7 +16971,7 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="102">
+      <c r="A305" s="101">
         <v>44960</v>
       </c>
       <c r="B305">
@@ -16985,7 +16990,7 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="102">
+      <c r="A306" s="101">
         <v>44959</v>
       </c>
       <c r="B306">
@@ -17004,7 +17009,7 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="102">
+      <c r="A307" s="101">
         <v>44958</v>
       </c>
       <c r="B307">
@@ -17023,7 +17028,7 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="102">
+      <c r="A308" s="101">
         <v>44957</v>
       </c>
       <c r="B308">
@@ -17042,7 +17047,7 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="102">
+      <c r="A309" s="101">
         <v>44956</v>
       </c>
       <c r="B309">
@@ -17061,7 +17066,7 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="102">
+      <c r="A310" s="101">
         <v>44953</v>
       </c>
       <c r="B310">
@@ -17080,7 +17085,7 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="102">
+      <c r="A311" s="101">
         <v>44952</v>
       </c>
       <c r="B311">
@@ -17099,7 +17104,7 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="102">
+      <c r="A312" s="101">
         <v>44951</v>
       </c>
       <c r="B312">
@@ -17118,7 +17123,7 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="102">
+      <c r="A313" s="101">
         <v>44950</v>
       </c>
       <c r="B313">
@@ -17137,7 +17142,7 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="102">
+      <c r="A314" s="101">
         <v>44949</v>
       </c>
       <c r="B314">
@@ -17156,7 +17161,7 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="102">
+      <c r="A315" s="101">
         <v>44946</v>
       </c>
       <c r="B315">
@@ -17175,7 +17180,7 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="102">
+      <c r="A316" s="101">
         <v>44945</v>
       </c>
       <c r="B316">
@@ -17194,7 +17199,7 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="102">
+      <c r="A317" s="101">
         <v>44944</v>
       </c>
       <c r="B317">
@@ -17213,7 +17218,7 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="102">
+      <c r="A318" s="101">
         <v>44943</v>
       </c>
       <c r="B318">
@@ -17232,7 +17237,7 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="102">
+      <c r="A319" s="101">
         <v>44939</v>
       </c>
       <c r="B319">
@@ -17251,7 +17256,7 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="102">
+      <c r="A320" s="101">
         <v>44938</v>
       </c>
       <c r="B320">
@@ -17270,7 +17275,7 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="102">
+      <c r="A321" s="101">
         <v>44937</v>
       </c>
       <c r="B321">
@@ -17289,7 +17294,7 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="102">
+      <c r="A322" s="101">
         <v>44936</v>
       </c>
       <c r="B322">
@@ -17308,7 +17313,7 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="102">
+      <c r="A323" s="101">
         <v>44935</v>
       </c>
       <c r="B323">
@@ -17327,7 +17332,7 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="102">
+      <c r="A324" s="101">
         <v>44932</v>
       </c>
       <c r="B324">
@@ -17346,7 +17351,7 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="102">
+      <c r="A325" s="101">
         <v>44931</v>
       </c>
       <c r="B325">
@@ -17365,7 +17370,7 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="102">
+      <c r="A326" s="101">
         <v>44930</v>
       </c>
       <c r="B326">
@@ -17384,7 +17389,7 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="102">
+      <c r="A327" s="101">
         <v>44929</v>
       </c>
       <c r="B327">
@@ -17403,7 +17408,7 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="102">
+      <c r="A328" s="101">
         <v>44925</v>
       </c>
       <c r="B328">
@@ -17422,7 +17427,7 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="102">
+      <c r="A329" s="101">
         <v>44924</v>
       </c>
       <c r="B329">
@@ -17441,7 +17446,7 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="102">
+      <c r="A330" s="101">
         <v>44923</v>
       </c>
       <c r="B330">
@@ -17460,7 +17465,7 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="102">
+      <c r="A331" s="101">
         <v>44922</v>
       </c>
       <c r="B331">
@@ -17479,7 +17484,7 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="102">
+      <c r="A332" s="101">
         <v>44918</v>
       </c>
       <c r="B332">
@@ -17498,7 +17503,7 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="102">
+      <c r="A333" s="101">
         <v>44917</v>
       </c>
       <c r="B333">
@@ -17517,7 +17522,7 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="102">
+      <c r="A334" s="101">
         <v>44916</v>
       </c>
       <c r="B334">
@@ -17536,7 +17541,7 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="102">
+      <c r="A335" s="101">
         <v>44915</v>
       </c>
       <c r="B335">
@@ -17555,7 +17560,7 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="102">
+      <c r="A336" s="101">
         <v>44914</v>
       </c>
       <c r="B336">
@@ -17574,7 +17579,7 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="102">
+      <c r="A337" s="101">
         <v>44911</v>
       </c>
       <c r="B337">
@@ -17593,7 +17598,7 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="102">
+      <c r="A338" s="101">
         <v>44910</v>
       </c>
       <c r="B338">
@@ -17612,7 +17617,7 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="102">
+      <c r="A339" s="101">
         <v>44909</v>
       </c>
       <c r="B339">
@@ -17631,7 +17636,7 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="102">
+      <c r="A340" s="101">
         <v>44908</v>
       </c>
       <c r="B340">
@@ -17650,7 +17655,7 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="102">
+      <c r="A341" s="101">
         <v>44907</v>
       </c>
       <c r="B341">
@@ -17669,7 +17674,7 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="102">
+      <c r="A342" s="101">
         <v>44904</v>
       </c>
       <c r="B342">
@@ -17688,7 +17693,7 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="102">
+      <c r="A343" s="101">
         <v>44903</v>
       </c>
       <c r="B343">
@@ -17707,7 +17712,7 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="102">
+      <c r="A344" s="101">
         <v>44902</v>
       </c>
       <c r="B344">
@@ -17726,7 +17731,7 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="102">
+      <c r="A345" s="101">
         <v>44901</v>
       </c>
       <c r="B345">
@@ -17745,7 +17750,7 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="102">
+      <c r="A346" s="101">
         <v>44900</v>
       </c>
       <c r="B346">
@@ -17764,7 +17769,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="102">
+      <c r="A347" s="101">
         <v>44897</v>
       </c>
       <c r="B347">
@@ -17783,7 +17788,7 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="102">
+      <c r="A348" s="101">
         <v>44896</v>
       </c>
       <c r="B348">
@@ -17802,7 +17807,7 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="102">
+      <c r="A349" s="101">
         <v>44895</v>
       </c>
       <c r="B349">
@@ -17821,7 +17826,7 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="102">
+      <c r="A350" s="101">
         <v>44894</v>
       </c>
       <c r="B350">
@@ -17840,7 +17845,7 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="102">
+      <c r="A351" s="101">
         <v>44893</v>
       </c>
       <c r="B351">
@@ -17859,7 +17864,7 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="102">
+      <c r="A352" s="101">
         <v>44890</v>
       </c>
       <c r="B352">
@@ -17878,7 +17883,7 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="102">
+      <c r="A353" s="101">
         <v>44888</v>
       </c>
       <c r="B353">
@@ -17897,7 +17902,7 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="102">
+      <c r="A354" s="101">
         <v>44887</v>
       </c>
       <c r="B354">
@@ -17916,7 +17921,7 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="102">
+      <c r="A355" s="101">
         <v>44886</v>
       </c>
       <c r="B355">
@@ -17935,7 +17940,7 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="102">
+      <c r="A356" s="101">
         <v>44883</v>
       </c>
       <c r="B356">
@@ -17954,7 +17959,7 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="102">
+      <c r="A357" s="101">
         <v>44882</v>
       </c>
       <c r="B357">
@@ -17973,7 +17978,7 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="102">
+      <c r="A358" s="101">
         <v>44881</v>
       </c>
       <c r="B358">
@@ -17992,7 +17997,7 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="102">
+      <c r="A359" s="101">
         <v>44880</v>
       </c>
       <c r="B359">
@@ -18011,7 +18016,7 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="102">
+      <c r="A360" s="101">
         <v>44879</v>
       </c>
       <c r="B360">
@@ -18030,7 +18035,7 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="102">
+      <c r="A361" s="101">
         <v>44876</v>
       </c>
       <c r="B361">
@@ -18049,7 +18054,7 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="102">
+      <c r="A362" s="101">
         <v>44875</v>
       </c>
       <c r="B362">
@@ -18068,7 +18073,7 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="102">
+      <c r="A363" s="101">
         <v>44874</v>
       </c>
       <c r="B363">
@@ -18087,7 +18092,7 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="102">
+      <c r="A364" s="101">
         <v>44873</v>
       </c>
       <c r="B364">
@@ -18106,7 +18111,7 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="102">
+      <c r="A365" s="101">
         <v>44872</v>
       </c>
       <c r="B365">
@@ -18125,7 +18130,7 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="102">
+      <c r="A366" s="101">
         <v>44869</v>
       </c>
       <c r="B366">
@@ -18144,7 +18149,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="102">
+      <c r="A367" s="101">
         <v>44868</v>
       </c>
       <c r="B367">
@@ -18163,7 +18168,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="102">
+      <c r="A368" s="101">
         <v>44867</v>
       </c>
       <c r="B368">
@@ -18182,7 +18187,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="102">
+      <c r="A369" s="101">
         <v>44866</v>
       </c>
       <c r="B369">
@@ -18201,7 +18206,7 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="102">
+      <c r="A370" s="101">
         <v>44865</v>
       </c>
       <c r="B370">
@@ -18220,7 +18225,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="102">
+      <c r="A371" s="101">
         <v>44862</v>
       </c>
       <c r="B371">
@@ -18239,7 +18244,7 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="102">
+      <c r="A372" s="101">
         <v>44861</v>
       </c>
       <c r="B372">
@@ -18258,7 +18263,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="102">
+      <c r="A373" s="101">
         <v>44860</v>
       </c>
       <c r="B373">
@@ -18277,7 +18282,7 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="102">
+      <c r="A374" s="101">
         <v>44859</v>
       </c>
       <c r="B374">
@@ -18296,7 +18301,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="102">
+      <c r="A375" s="101">
         <v>44858</v>
       </c>
       <c r="B375">
@@ -18315,7 +18320,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="102">
+      <c r="A376" s="101">
         <v>44855</v>
       </c>
       <c r="B376">
@@ -18334,7 +18339,7 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="102">
+      <c r="A377" s="101">
         <v>44854</v>
       </c>
       <c r="B377">
@@ -18353,7 +18358,7 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="102">
+      <c r="A378" s="101">
         <v>44853</v>
       </c>
       <c r="B378">
@@ -18372,7 +18377,7 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="102">
+      <c r="A379" s="101">
         <v>44852</v>
       </c>
       <c r="B379">
@@ -18391,7 +18396,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="102">
+      <c r="A380" s="101">
         <v>44851</v>
       </c>
       <c r="B380">
@@ -18410,7 +18415,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="102">
+      <c r="A381" s="101">
         <v>44848</v>
       </c>
       <c r="B381">
@@ -18429,7 +18434,7 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="102">
+      <c r="A382" s="101">
         <v>44847</v>
       </c>
       <c r="B382">
@@ -18448,7 +18453,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="102">
+      <c r="A383" s="101">
         <v>44846</v>
       </c>
       <c r="B383">
@@ -18467,7 +18472,7 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="102">
+      <c r="A384" s="101">
         <v>44845</v>
       </c>
       <c r="B384">
@@ -18486,7 +18491,7 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="102">
+      <c r="A385" s="101">
         <v>44844</v>
       </c>
       <c r="B385">
@@ -18505,7 +18510,7 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="102">
+      <c r="A386" s="101">
         <v>44841</v>
       </c>
       <c r="B386">
@@ -18524,7 +18529,7 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="102">
+      <c r="A387" s="101">
         <v>44840</v>
       </c>
       <c r="B387">
@@ -18543,7 +18548,7 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="102">
+      <c r="A388" s="101">
         <v>44839</v>
       </c>
       <c r="B388">
@@ -18562,7 +18567,7 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="102">
+      <c r="A389" s="101">
         <v>44838</v>
       </c>
       <c r="B389">
@@ -18581,7 +18586,7 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="102">
+      <c r="A390" s="101">
         <v>44837</v>
       </c>
       <c r="B390">
@@ -18600,7 +18605,7 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="102">
+      <c r="A391" s="101">
         <v>44834</v>
       </c>
       <c r="B391">
@@ -18619,7 +18624,7 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="102">
+      <c r="A392" s="101">
         <v>44833</v>
       </c>
       <c r="B392">
@@ -18638,7 +18643,7 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="102">
+      <c r="A393" s="101">
         <v>44832</v>
       </c>
       <c r="B393">
@@ -18657,7 +18662,7 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="102">
+      <c r="A394" s="101">
         <v>44831</v>
       </c>
       <c r="B394">
@@ -18676,7 +18681,7 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="102">
+      <c r="A395" s="101">
         <v>44830</v>
       </c>
       <c r="B395">
@@ -18695,7 +18700,7 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="102">
+      <c r="A396" s="101">
         <v>44827</v>
       </c>
       <c r="B396">
@@ -18714,7 +18719,7 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="102">
+      <c r="A397" s="101">
         <v>44826</v>
       </c>
       <c r="B397">
@@ -18733,7 +18738,7 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="102">
+      <c r="A398" s="101">
         <v>44825</v>
       </c>
       <c r="B398">
@@ -18752,7 +18757,7 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="102">
+      <c r="A399" s="101">
         <v>44824</v>
       </c>
       <c r="B399">
@@ -18771,7 +18776,7 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="102">
+      <c r="A400" s="101">
         <v>44823</v>
       </c>
       <c r="B400">
@@ -18790,7 +18795,7 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="102">
+      <c r="A401" s="101">
         <v>44820</v>
       </c>
       <c r="B401">
@@ -18809,7 +18814,7 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="102">
+      <c r="A402" s="101">
         <v>44819</v>
       </c>
       <c r="B402">
@@ -18828,7 +18833,7 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="102">
+      <c r="A403" s="101">
         <v>44818</v>
       </c>
       <c r="B403">
@@ -18847,7 +18852,7 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="102">
+      <c r="A404" s="101">
         <v>44817</v>
       </c>
       <c r="B404">
@@ -18866,7 +18871,7 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="102">
+      <c r="A405" s="101">
         <v>44816</v>
       </c>
       <c r="B405">
@@ -18885,7 +18890,7 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="102">
+      <c r="A406" s="101">
         <v>44813</v>
       </c>
       <c r="B406">
@@ -18904,7 +18909,7 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="102">
+      <c r="A407" s="101">
         <v>44812</v>
       </c>
       <c r="B407">
@@ -18923,7 +18928,7 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="102">
+      <c r="A408" s="101">
         <v>44811</v>
       </c>
       <c r="B408">
@@ -18942,7 +18947,7 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="102">
+      <c r="A409" s="101">
         <v>44810</v>
       </c>
       <c r="B409">
@@ -18961,7 +18966,7 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="102">
+      <c r="A410" s="101">
         <v>44806</v>
       </c>
       <c r="B410">
@@ -18980,7 +18985,7 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="102">
+      <c r="A411" s="101">
         <v>44805</v>
       </c>
       <c r="B411">
@@ -18999,7 +19004,7 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="102">
+      <c r="A412" s="101">
         <v>44804</v>
       </c>
       <c r="B412">
@@ -19018,7 +19023,7 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="102">
+      <c r="A413" s="101">
         <v>44803</v>
       </c>
       <c r="B413">
@@ -19037,7 +19042,7 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="102">
+      <c r="A414" s="101">
         <v>44802</v>
       </c>
       <c r="B414">
@@ -19056,7 +19061,7 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="102">
+      <c r="A415" s="101">
         <v>44799</v>
       </c>
       <c r="B415">
@@ -19075,7 +19080,7 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="102">
+      <c r="A416" s="101">
         <v>44798</v>
       </c>
       <c r="B416">
@@ -19094,7 +19099,7 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="102">
+      <c r="A417" s="101">
         <v>44797</v>
       </c>
       <c r="B417">
@@ -19113,7 +19118,7 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="102">
+      <c r="A418" s="101">
         <v>44796</v>
       </c>
       <c r="B418">
@@ -19132,7 +19137,7 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="102">
+      <c r="A419" s="101">
         <v>44795</v>
       </c>
       <c r="B419">
@@ -19151,7 +19156,7 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="102">
+      <c r="A420" s="101">
         <v>44792</v>
       </c>
       <c r="B420">
@@ -19170,7 +19175,7 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="102">
+      <c r="A421" s="101">
         <v>44791</v>
       </c>
       <c r="B421">
@@ -19189,7 +19194,7 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="102">
+      <c r="A422" s="101">
         <v>44790</v>
       </c>
       <c r="B422">
@@ -19208,7 +19213,7 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="102">
+      <c r="A423" s="101">
         <v>44789</v>
       </c>
       <c r="B423">
@@ -19227,7 +19232,7 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="102">
+      <c r="A424" s="101">
         <v>44788</v>
       </c>
       <c r="B424">
@@ -19246,7 +19251,7 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="102">
+      <c r="A425" s="101">
         <v>44785</v>
       </c>
       <c r="B425">
@@ -19265,7 +19270,7 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="102">
+      <c r="A426" s="101">
         <v>44784</v>
       </c>
       <c r="B426">
@@ -19284,7 +19289,7 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="102">
+      <c r="A427" s="101">
         <v>44783</v>
       </c>
       <c r="B427">
@@ -19303,7 +19308,7 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="102">
+      <c r="A428" s="101">
         <v>44782</v>
       </c>
       <c r="B428">
@@ -19322,7 +19327,7 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="102">
+      <c r="A429" s="101">
         <v>44781</v>
       </c>
       <c r="B429">
@@ -19341,7 +19346,7 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="102">
+      <c r="A430" s="101">
         <v>44778</v>
       </c>
       <c r="B430">
@@ -19360,7 +19365,7 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="102">
+      <c r="A431" s="101">
         <v>44777</v>
       </c>
       <c r="B431">
@@ -19379,7 +19384,7 @@
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="102">
+      <c r="A432" s="101">
         <v>44776</v>
       </c>
       <c r="B432">
@@ -19398,7 +19403,7 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="102">
+      <c r="A433" s="101">
         <v>44775</v>
       </c>
       <c r="B433">
@@ -19417,7 +19422,7 @@
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="102">
+      <c r="A434" s="101">
         <v>44774</v>
       </c>
       <c r="B434">
@@ -19436,7 +19441,7 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="102">
+      <c r="A435" s="101">
         <v>44771</v>
       </c>
       <c r="B435">
@@ -19455,7 +19460,7 @@
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="102">
+      <c r="A436" s="101">
         <v>44770</v>
       </c>
       <c r="B436">
@@ -19474,7 +19479,7 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="102">
+      <c r="A437" s="101">
         <v>44769</v>
       </c>
       <c r="B437">
@@ -19493,7 +19498,7 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="102">
+      <c r="A438" s="101">
         <v>44768</v>
       </c>
       <c r="B438">
@@ -19512,7 +19517,7 @@
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="102">
+      <c r="A439" s="101">
         <v>44767</v>
       </c>
       <c r="B439">
@@ -19531,7 +19536,7 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="102">
+      <c r="A440" s="101">
         <v>44764</v>
       </c>
       <c r="B440">
@@ -19550,7 +19555,7 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="102">
+      <c r="A441" s="101">
         <v>44763</v>
       </c>
       <c r="B441">
@@ -19569,7 +19574,7 @@
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="102">
+      <c r="A442" s="101">
         <v>44762</v>
       </c>
       <c r="B442">
@@ -19588,7 +19593,7 @@
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="102">
+      <c r="A443" s="101">
         <v>44761</v>
       </c>
       <c r="B443">
@@ -19607,7 +19612,7 @@
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="102">
+      <c r="A444" s="101">
         <v>44760</v>
       </c>
       <c r="B444">
@@ -19626,7 +19631,7 @@
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="102">
+      <c r="A445" s="101">
         <v>44757</v>
       </c>
       <c r="B445">
@@ -19645,7 +19650,7 @@
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="102">
+      <c r="A446" s="101">
         <v>44756</v>
       </c>
       <c r="B446">
@@ -19664,7 +19669,7 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="102">
+      <c r="A447" s="101">
         <v>44755</v>
       </c>
       <c r="B447">
@@ -19683,7 +19688,7 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="102">
+      <c r="A448" s="101">
         <v>44754</v>
       </c>
       <c r="B448">
@@ -19702,7 +19707,7 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="102">
+      <c r="A449" s="101">
         <v>44753</v>
       </c>
       <c r="B449">
@@ -19721,7 +19726,7 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="102">
+      <c r="A450" s="101">
         <v>44750</v>
       </c>
       <c r="B450">
@@ -19740,7 +19745,7 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="102">
+      <c r="A451" s="101">
         <v>44749</v>
       </c>
       <c r="B451">
@@ -19759,7 +19764,7 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="102">
+      <c r="A452" s="101">
         <v>44748</v>
       </c>
       <c r="B452">
@@ -19778,7 +19783,7 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="102">
+      <c r="A453" s="101">
         <v>44747</v>
       </c>
       <c r="B453">
@@ -19797,7 +19802,7 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="102">
+      <c r="A454" s="101">
         <v>44743</v>
       </c>
       <c r="B454">
@@ -19816,7 +19821,7 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="102">
+      <c r="A455" s="101">
         <v>44742</v>
       </c>
       <c r="B455">
@@ -19835,7 +19840,7 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="102">
+      <c r="A456" s="101">
         <v>44741</v>
       </c>
       <c r="B456">
@@ -19854,7 +19859,7 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="102">
+      <c r="A457" s="101">
         <v>44740</v>
       </c>
       <c r="B457">
@@ -19873,7 +19878,7 @@
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="102">
+      <c r="A458" s="101">
         <v>44739</v>
       </c>
       <c r="B458">
@@ -19892,7 +19897,7 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="102">
+      <c r="A459" s="101">
         <v>44736</v>
       </c>
       <c r="B459">
@@ -19911,7 +19916,7 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="102">
+      <c r="A460" s="101">
         <v>44735</v>
       </c>
       <c r="B460">
@@ -19930,7 +19935,7 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="102">
+      <c r="A461" s="101">
         <v>44734</v>
       </c>
       <c r="B461">
@@ -19949,7 +19954,7 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="102">
+      <c r="A462" s="101">
         <v>44733</v>
       </c>
       <c r="B462">
@@ -19968,7 +19973,7 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="102">
+      <c r="A463" s="101">
         <v>44729</v>
       </c>
       <c r="B463">
@@ -19987,7 +19992,7 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="102">
+      <c r="A464" s="101">
         <v>44728</v>
       </c>
       <c r="B464">
@@ -20006,7 +20011,7 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="102">
+      <c r="A465" s="101">
         <v>44727</v>
       </c>
       <c r="B465">
@@ -20025,7 +20030,7 @@
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="102">
+      <c r="A466" s="101">
         <v>44726</v>
       </c>
       <c r="B466">
@@ -20044,7 +20049,7 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="102">
+      <c r="A467" s="101">
         <v>44725</v>
       </c>
       <c r="B467">
@@ -20063,7 +20068,7 @@
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="102">
+      <c r="A468" s="101">
         <v>44722</v>
       </c>
       <c r="B468">
@@ -20082,7 +20087,7 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="102">
+      <c r="A469" s="101">
         <v>44721</v>
       </c>
       <c r="B469">
@@ -20101,7 +20106,7 @@
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="102">
+      <c r="A470" s="101">
         <v>44720</v>
       </c>
       <c r="B470">
@@ -20120,7 +20125,7 @@
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="102">
+      <c r="A471" s="101">
         <v>44719</v>
       </c>
       <c r="B471">
@@ -20139,7 +20144,7 @@
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="102">
+      <c r="A472" s="101">
         <v>44718</v>
       </c>
       <c r="B472">
@@ -20158,7 +20163,7 @@
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="102">
+      <c r="A473" s="101">
         <v>44715</v>
       </c>
       <c r="B473">
@@ -20177,7 +20182,7 @@
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="102">
+      <c r="A474" s="101">
         <v>44714</v>
       </c>
       <c r="B474">
@@ -20196,7 +20201,7 @@
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="102">
+      <c r="A475" s="101">
         <v>44713</v>
       </c>
       <c r="B475">
@@ -20215,7 +20220,7 @@
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="102">
+      <c r="A476" s="101">
         <v>44712</v>
       </c>
       <c r="B476">
@@ -20234,7 +20239,7 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="102">
+      <c r="A477" s="101">
         <v>44708</v>
       </c>
       <c r="B477">
@@ -20253,7 +20258,7 @@
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="102">
+      <c r="A478" s="101">
         <v>44707</v>
       </c>
       <c r="B478">
@@ -20272,7 +20277,7 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="102">
+      <c r="A479" s="101">
         <v>44706</v>
       </c>
       <c r="B479">
@@ -20291,7 +20296,7 @@
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="102">
+      <c r="A480" s="101">
         <v>44705</v>
       </c>
       <c r="B480">
@@ -20310,7 +20315,7 @@
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="102">
+      <c r="A481" s="101">
         <v>44704</v>
       </c>
       <c r="B481">
@@ -20329,7 +20334,7 @@
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="102">
+      <c r="A482" s="101">
         <v>44701</v>
       </c>
       <c r="B482">
@@ -20348,7 +20353,7 @@
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="102">
+      <c r="A483" s="101">
         <v>44700</v>
       </c>
       <c r="B483">
@@ -20367,7 +20372,7 @@
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="102">
+      <c r="A484" s="101">
         <v>44699</v>
       </c>
       <c r="B484">
@@ -20386,7 +20391,7 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="102">
+      <c r="A485" s="101">
         <v>44698</v>
       </c>
       <c r="B485">
@@ -20405,7 +20410,7 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="102">
+      <c r="A486" s="101">
         <v>44697</v>
       </c>
       <c r="B486">
@@ -20424,7 +20429,7 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="102">
+      <c r="A487" s="101">
         <v>44694</v>
       </c>
       <c r="B487">
@@ -20443,7 +20448,7 @@
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="102">
+      <c r="A488" s="101">
         <v>44693</v>
       </c>
       <c r="B488">
@@ -20462,7 +20467,7 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="102">
+      <c r="A489" s="101">
         <v>44692</v>
       </c>
       <c r="B489">
@@ -20481,7 +20486,7 @@
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="102">
+      <c r="A490" s="101">
         <v>44691</v>
       </c>
       <c r="B490">
@@ -20500,7 +20505,7 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="102">
+      <c r="A491" s="101">
         <v>44690</v>
       </c>
       <c r="B491">
@@ -20519,7 +20524,7 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="102">
+      <c r="A492" s="101">
         <v>44687</v>
       </c>
       <c r="B492">
@@ -20538,7 +20543,7 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="102">
+      <c r="A493" s="101">
         <v>44686</v>
       </c>
       <c r="B493">
@@ -20557,7 +20562,7 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="102">
+      <c r="A494" s="101">
         <v>44685</v>
       </c>
       <c r="B494">
@@ -20576,7 +20581,7 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="102">
+      <c r="A495" s="101">
         <v>44684</v>
       </c>
       <c r="B495">
@@ -20595,7 +20600,7 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="102">
+      <c r="A496" s="101">
         <v>44683</v>
       </c>
       <c r="B496">
@@ -20614,7 +20619,7 @@
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="102">
+      <c r="A497" s="101">
         <v>44680</v>
       </c>
       <c r="B497">
@@ -20633,7 +20638,7 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="102">
+      <c r="A498" s="101">
         <v>44679</v>
       </c>
       <c r="B498">
@@ -20652,7 +20657,7 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="102">
+      <c r="A499" s="101">
         <v>44678</v>
       </c>
       <c r="B499">
@@ -20671,7 +20676,7 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="102">
+      <c r="A500" s="101">
         <v>44677</v>
       </c>
       <c r="B500">
@@ -20690,7 +20695,7 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="102">
+      <c r="A501" s="101">
         <v>44676</v>
       </c>
       <c r="B501">
@@ -20709,7 +20714,7 @@
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="102">
+      <c r="A502" s="101">
         <v>44673</v>
       </c>
       <c r="B502">
@@ -20728,7 +20733,7 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="102">
+      <c r="A503" s="101">
         <v>44672</v>
       </c>
       <c r="B503">
@@ -20747,7 +20752,7 @@
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="102">
+      <c r="A504" s="101">
         <v>44671</v>
       </c>
       <c r="B504">
@@ -20766,7 +20771,7 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="102">
+      <c r="A505" s="101">
         <v>44670</v>
       </c>
       <c r="B505">
@@ -20785,7 +20790,7 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="102">
+      <c r="A506" s="101">
         <v>44669</v>
       </c>
       <c r="B506">
@@ -20804,7 +20809,7 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="102">
+      <c r="A507" s="101">
         <v>44665</v>
       </c>
       <c r="B507">
@@ -20823,7 +20828,7 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="102">
+      <c r="A508" s="101">
         <v>44664</v>
       </c>
       <c r="B508">
@@ -20842,7 +20847,7 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="102">
+      <c r="A509" s="101">
         <v>44663</v>
       </c>
       <c r="B509">
@@ -20861,7 +20866,7 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="102">
+      <c r="A510" s="101">
         <v>44662</v>
       </c>
       <c r="B510">
@@ -20880,7 +20885,7 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="102">
+      <c r="A511" s="101">
         <v>44659</v>
       </c>
       <c r="B511">
@@ -20899,7 +20904,7 @@
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="102">
+      <c r="A512" s="101">
         <v>44658</v>
       </c>
       <c r="B512">
@@ -20918,7 +20923,7 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="102">
+      <c r="A513" s="101">
         <v>44657</v>
       </c>
       <c r="B513">
@@ -20937,7 +20942,7 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="102">
+      <c r="A514" s="101">
         <v>44656</v>
       </c>
       <c r="B514">
@@ -20956,7 +20961,7 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="102">
+      <c r="A515" s="101">
         <v>44655</v>
       </c>
       <c r="B515">
@@ -20975,7 +20980,7 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="102">
+      <c r="A516" s="101">
         <v>44652</v>
       </c>
       <c r="B516">
@@ -20994,7 +20999,7 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="102">
+      <c r="A517" s="101">
         <v>44651</v>
       </c>
       <c r="B517">
@@ -21013,7 +21018,7 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="102">
+      <c r="A518" s="101">
         <v>44650</v>
       </c>
       <c r="B518">
@@ -21032,7 +21037,7 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="102">
+      <c r="A519" s="101">
         <v>44649</v>
       </c>
       <c r="B519">
@@ -21051,7 +21056,7 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="102">
+      <c r="A520" s="101">
         <v>44648</v>
       </c>
       <c r="B520">
@@ -21070,7 +21075,7 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="102">
+      <c r="A521" s="101">
         <v>44645</v>
       </c>
       <c r="B521">
@@ -21089,7 +21094,7 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="102">
+      <c r="A522" s="101">
         <v>44644</v>
       </c>
       <c r="B522">
@@ -21108,7 +21113,7 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="102">
+      <c r="A523" s="101">
         <v>44643</v>
       </c>
       <c r="B523">
@@ -21127,7 +21132,7 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="102">
+      <c r="A524" s="101">
         <v>44642</v>
       </c>
       <c r="B524">
@@ -21146,7 +21151,7 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="102">
+      <c r="A525" s="101">
         <v>44641</v>
       </c>
       <c r="B525">
@@ -21165,7 +21170,7 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="102">
+      <c r="A526" s="101">
         <v>44638</v>
       </c>
       <c r="B526">
@@ -21184,7 +21189,7 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="102">
+      <c r="A527" s="101">
         <v>44637</v>
       </c>
       <c r="B527">
@@ -21203,7 +21208,7 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="102">
+      <c r="A528" s="101">
         <v>44636</v>
       </c>
       <c r="B528">
@@ -21222,7 +21227,7 @@
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A529" s="102">
+      <c r="A529" s="101">
         <v>44635</v>
       </c>
       <c r="B529">
@@ -21241,7 +21246,7 @@
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A530" s="102">
+      <c r="A530" s="101">
         <v>44634</v>
       </c>
       <c r="B530">
@@ -21260,7 +21265,7 @@
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A531" s="102">
+      <c r="A531" s="101">
         <v>44631</v>
       </c>
       <c r="B531">
@@ -21279,7 +21284,7 @@
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" s="102">
+      <c r="A532" s="101">
         <v>44630</v>
       </c>
       <c r="B532">
@@ -21298,7 +21303,7 @@
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="102">
+      <c r="A533" s="101">
         <v>44629</v>
       </c>
       <c r="B533">
@@ -21317,7 +21322,7 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="102">
+      <c r="A534" s="101">
         <v>44628</v>
       </c>
       <c r="B534">
@@ -21336,7 +21341,7 @@
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A535" s="102">
+      <c r="A535" s="101">
         <v>44627</v>
       </c>
       <c r="B535">
@@ -21355,7 +21360,7 @@
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" s="102">
+      <c r="A536" s="101">
         <v>44624</v>
       </c>
       <c r="B536">
@@ -21374,7 +21379,7 @@
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" s="102">
+      <c r="A537" s="101">
         <v>44623</v>
       </c>
       <c r="B537">
@@ -21393,7 +21398,7 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="102">
+      <c r="A538" s="101">
         <v>44622</v>
       </c>
       <c r="B538">
@@ -21412,7 +21417,7 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="102">
+      <c r="A539" s="101">
         <v>44621</v>
       </c>
       <c r="B539">
@@ -21431,7 +21436,7 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="102">
+      <c r="A540" s="101">
         <v>44620</v>
       </c>
       <c r="B540">
@@ -21450,7 +21455,7 @@
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A541" s="102">
+      <c r="A541" s="101">
         <v>44617</v>
       </c>
       <c r="B541">
@@ -21469,7 +21474,7 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="102">
+      <c r="A542" s="101">
         <v>44616</v>
       </c>
       <c r="B542">
@@ -21488,7 +21493,7 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A543" s="102">
+      <c r="A543" s="101">
         <v>44615</v>
       </c>
       <c r="B543">
@@ -21507,7 +21512,7 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" s="102">
+      <c r="A544" s="101">
         <v>44614</v>
       </c>
       <c r="B544">
@@ -21526,7 +21531,7 @@
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A545" s="102">
+      <c r="A545" s="101">
         <v>44610</v>
       </c>
       <c r="B545">
@@ -21545,7 +21550,7 @@
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A546" s="102">
+      <c r="A546" s="101">
         <v>44609</v>
       </c>
       <c r="B546">
@@ -21564,7 +21569,7 @@
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" s="102">
+      <c r="A547" s="101">
         <v>44608</v>
       </c>
       <c r="B547">
@@ -21583,7 +21588,7 @@
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" s="102">
+      <c r="A548" s="101">
         <v>44607</v>
       </c>
       <c r="B548">
@@ -21602,7 +21607,7 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" s="102">
+      <c r="A549" s="101">
         <v>44606</v>
       </c>
       <c r="B549">
@@ -21621,7 +21626,7 @@
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" s="102">
+      <c r="A550" s="101">
         <v>44603</v>
       </c>
       <c r="B550">
@@ -21640,7 +21645,7 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A551" s="102">
+      <c r="A551" s="101">
         <v>44602</v>
       </c>
       <c r="B551">
@@ -21659,7 +21664,7 @@
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" s="102">
+      <c r="A552" s="101">
         <v>44601</v>
       </c>
       <c r="B552">
@@ -21678,7 +21683,7 @@
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" s="102">
+      <c r="A553" s="101">
         <v>44600</v>
       </c>
       <c r="B553">
@@ -21697,7 +21702,7 @@
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" s="102">
+      <c r="A554" s="101">
         <v>44599</v>
       </c>
       <c r="B554">
@@ -21716,7 +21721,7 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A555" s="102">
+      <c r="A555" s="101">
         <v>44596</v>
       </c>
       <c r="B555">
@@ -21735,7 +21740,7 @@
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A556" s="102">
+      <c r="A556" s="101">
         <v>44595</v>
       </c>
       <c r="B556">
@@ -21754,7 +21759,7 @@
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A557" s="102">
+      <c r="A557" s="101">
         <v>44594</v>
       </c>
       <c r="B557">
@@ -21773,7 +21778,7 @@
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A558" s="102">
+      <c r="A558" s="101">
         <v>44593</v>
       </c>
       <c r="B558">
@@ -21792,7 +21797,7 @@
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A559" s="102">
+      <c r="A559" s="101">
         <v>44592</v>
       </c>
       <c r="B559">
@@ -21811,7 +21816,7 @@
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A560" s="102">
+      <c r="A560" s="101">
         <v>44589</v>
       </c>
       <c r="B560">
@@ -21830,7 +21835,7 @@
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A561" s="102">
+      <c r="A561" s="101">
         <v>44588</v>
       </c>
       <c r="B561">
@@ -21849,7 +21854,7 @@
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A562" s="102">
+      <c r="A562" s="101">
         <v>44587</v>
       </c>
       <c r="B562">
@@ -21868,7 +21873,7 @@
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A563" s="102">
+      <c r="A563" s="101">
         <v>44586</v>
       </c>
       <c r="B563">
@@ -21887,7 +21892,7 @@
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" s="102">
+      <c r="A564" s="101">
         <v>44585</v>
       </c>
       <c r="B564">
@@ -21906,7 +21911,7 @@
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A565" s="102">
+      <c r="A565" s="101">
         <v>44582</v>
       </c>
       <c r="B565">
@@ -21925,7 +21930,7 @@
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A566" s="102">
+      <c r="A566" s="101">
         <v>44581</v>
       </c>
       <c r="B566">
@@ -21944,7 +21949,7 @@
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A567" s="102">
+      <c r="A567" s="101">
         <v>44580</v>
       </c>
       <c r="B567">
@@ -21963,7 +21968,7 @@
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A568" s="102">
+      <c r="A568" s="101">
         <v>44579</v>
       </c>
       <c r="B568">
@@ -21982,7 +21987,7 @@
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A569" s="102">
+      <c r="A569" s="101">
         <v>44575</v>
       </c>
       <c r="B569">
@@ -22001,7 +22006,7 @@
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A570" s="102">
+      <c r="A570" s="101">
         <v>44574</v>
       </c>
       <c r="B570">
@@ -22020,7 +22025,7 @@
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A571" s="102">
+      <c r="A571" s="101">
         <v>44573</v>
       </c>
       <c r="B571">
@@ -22039,7 +22044,7 @@
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A572" s="102">
+      <c r="A572" s="101">
         <v>44572</v>
       </c>
       <c r="B572">
@@ -22058,7 +22063,7 @@
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A573" s="102">
+      <c r="A573" s="101">
         <v>44571</v>
       </c>
       <c r="B573">
@@ -22077,7 +22082,7 @@
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A574" s="102">
+      <c r="A574" s="101">
         <v>44568</v>
       </c>
       <c r="B574">
@@ -22096,7 +22101,7 @@
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A575" s="102">
+      <c r="A575" s="101">
         <v>44567</v>
       </c>
       <c r="B575">
@@ -22115,7 +22120,7 @@
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A576" s="102">
+      <c r="A576" s="101">
         <v>44566</v>
       </c>
       <c r="B576">
@@ -22134,7 +22139,7 @@
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A577" s="102">
+      <c r="A577" s="101">
         <v>44565</v>
       </c>
       <c r="B577">
@@ -22153,7 +22158,7 @@
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A578" s="102">
+      <c r="A578" s="101">
         <v>44564</v>
       </c>
       <c r="B578">
@@ -22172,7 +22177,7 @@
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A579" s="102">
+      <c r="A579" s="101">
         <v>44561</v>
       </c>
       <c r="B579">
@@ -22191,7 +22196,7 @@
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A580" s="102">
+      <c r="A580" s="101">
         <v>44560</v>
       </c>
       <c r="B580">
@@ -22210,7 +22215,7 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A581" s="102">
+      <c r="A581" s="101">
         <v>44559</v>
       </c>
       <c r="B581">
@@ -22229,7 +22234,7 @@
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A582" s="102">
+      <c r="A582" s="101">
         <v>44558</v>
       </c>
       <c r="B582">
@@ -22248,7 +22253,7 @@
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A583" s="102">
+      <c r="A583" s="101">
         <v>44557</v>
       </c>
       <c r="B583">
@@ -22267,7 +22272,7 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A584" s="102">
+      <c r="A584" s="101">
         <v>44553</v>
       </c>
       <c r="B584">
@@ -22286,7 +22291,7 @@
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A585" s="102">
+      <c r="A585" s="101">
         <v>44552</v>
       </c>
       <c r="B585">
@@ -22305,7 +22310,7 @@
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A586" s="102">
+      <c r="A586" s="101">
         <v>44551</v>
       </c>
       <c r="B586">
@@ -22324,7 +22329,7 @@
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A587" s="102">
+      <c r="A587" s="101">
         <v>44550</v>
       </c>
       <c r="B587">
@@ -22343,7 +22348,7 @@
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A588" s="102">
+      <c r="A588" s="101">
         <v>44547</v>
       </c>
       <c r="B588">
@@ -22362,7 +22367,7 @@
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A589" s="102">
+      <c r="A589" s="101">
         <v>44546</v>
       </c>
       <c r="B589">
@@ -22381,7 +22386,7 @@
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A590" s="102">
+      <c r="A590" s="101">
         <v>44545</v>
       </c>
       <c r="B590">
@@ -22400,7 +22405,7 @@
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A591" s="102">
+      <c r="A591" s="101">
         <v>44544</v>
       </c>
       <c r="B591">
@@ -22419,7 +22424,7 @@
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" s="102">
+      <c r="A592" s="101">
         <v>44543</v>
       </c>
       <c r="B592">
@@ -22438,7 +22443,7 @@
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="102">
+      <c r="A593" s="101">
         <v>44540</v>
       </c>
       <c r="B593">
@@ -22457,7 +22462,7 @@
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="102">
+      <c r="A594" s="101">
         <v>44539</v>
       </c>
       <c r="B594">
@@ -22476,7 +22481,7 @@
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="102">
+      <c r="A595" s="101">
         <v>44538</v>
       </c>
       <c r="B595">
@@ -22495,7 +22500,7 @@
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A596" s="102">
+      <c r="A596" s="101">
         <v>44537</v>
       </c>
       <c r="B596">
@@ -22514,7 +22519,7 @@
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="102">
+      <c r="A597" s="101">
         <v>44536</v>
       </c>
       <c r="B597">
@@ -22533,7 +22538,7 @@
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="102">
+      <c r="A598" s="101">
         <v>44533</v>
       </c>
       <c r="B598">
@@ -22552,7 +22557,7 @@
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="102">
+      <c r="A599" s="101">
         <v>44532</v>
       </c>
       <c r="B599">
@@ -22571,7 +22576,7 @@
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A600" s="102">
+      <c r="A600" s="101">
         <v>44531</v>
       </c>
       <c r="B600">
@@ -22590,7 +22595,7 @@
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A601" s="102">
+      <c r="A601" s="101">
         <v>44530</v>
       </c>
       <c r="B601">
@@ -22609,7 +22614,7 @@
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A602" s="102">
+      <c r="A602" s="101">
         <v>44529</v>
       </c>
       <c r="B602">
@@ -22628,7 +22633,7 @@
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A603" s="102">
+      <c r="A603" s="101">
         <v>44526</v>
       </c>
       <c r="B603">
@@ -22647,7 +22652,7 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A604" s="102">
+      <c r="A604" s="101">
         <v>44524</v>
       </c>
       <c r="B604">
@@ -22666,7 +22671,7 @@
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="102">
+      <c r="A605" s="101">
         <v>44523</v>
       </c>
       <c r="B605">
@@ -22685,7 +22690,7 @@
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="102">
+      <c r="A606" s="101">
         <v>44522</v>
       </c>
       <c r="B606">
@@ -22704,7 +22709,7 @@
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" s="102">
+      <c r="A607" s="101">
         <v>44519</v>
       </c>
       <c r="B607">
@@ -22723,7 +22728,7 @@
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" s="102">
+      <c r="A608" s="101">
         <v>44518</v>
       </c>
       <c r="B608">
@@ -22742,7 +22747,7 @@
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A609" s="102">
+      <c r="A609" s="101">
         <v>44517</v>
       </c>
       <c r="B609">
@@ -22761,7 +22766,7 @@
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" s="102">
+      <c r="A610" s="101">
         <v>44516</v>
       </c>
       <c r="B610">
@@ -22780,7 +22785,7 @@
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" s="102">
+      <c r="A611" s="101">
         <v>44515</v>
       </c>
       <c r="B611">
@@ -22799,7 +22804,7 @@
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" s="102">
+      <c r="A612" s="101">
         <v>44512</v>
       </c>
       <c r="B612">
@@ -22818,7 +22823,7 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" s="102">
+      <c r="A613" s="101">
         <v>44511</v>
       </c>
       <c r="B613">
@@ -22837,7 +22842,7 @@
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A614" s="102">
+      <c r="A614" s="101">
         <v>44510</v>
       </c>
       <c r="B614">
@@ -22856,7 +22861,7 @@
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A615" s="102">
+      <c r="A615" s="101">
         <v>44509</v>
       </c>
       <c r="B615">
@@ -22875,7 +22880,7 @@
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A616" s="102">
+      <c r="A616" s="101">
         <v>44508</v>
       </c>
       <c r="B616">
@@ -22894,7 +22899,7 @@
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A617" s="102">
+      <c r="A617" s="101">
         <v>44505</v>
       </c>
       <c r="B617">
@@ -22913,7 +22918,7 @@
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A618" s="102">
+      <c r="A618" s="101">
         <v>44504</v>
       </c>
       <c r="B618">
@@ -22932,7 +22937,7 @@
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A619" s="102">
+      <c r="A619" s="101">
         <v>44503</v>
       </c>
       <c r="B619">
@@ -22951,7 +22956,7 @@
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="102">
+      <c r="A620" s="101">
         <v>44502</v>
       </c>
       <c r="B620">
@@ -22970,7 +22975,7 @@
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" s="102">
+      <c r="A621" s="101">
         <v>44501</v>
       </c>
       <c r="B621">
@@ -22989,7 +22994,7 @@
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="102">
+      <c r="A622" s="101">
         <v>44498</v>
       </c>
       <c r="B622">
@@ -23008,7 +23013,7 @@
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" s="102">
+      <c r="A623" s="101">
         <v>44497</v>
       </c>
       <c r="B623">
@@ -23027,7 +23032,7 @@
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="102">
+      <c r="A624" s="101">
         <v>44496</v>
       </c>
       <c r="B624">
@@ -23046,7 +23051,7 @@
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="102">
+      <c r="A625" s="101">
         <v>44495</v>
       </c>
       <c r="B625">
@@ -23065,7 +23070,7 @@
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="102">
+      <c r="A626" s="101">
         <v>44494</v>
       </c>
       <c r="B626">
@@ -23084,7 +23089,7 @@
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="102">
+      <c r="A627" s="101">
         <v>44491</v>
       </c>
       <c r="B627">
@@ -23103,7 +23108,7 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="102">
+      <c r="A628" s="101">
         <v>44490</v>
       </c>
       <c r="B628">
@@ -23122,7 +23127,7 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="102">
+      <c r="A629" s="101">
         <v>44489</v>
       </c>
       <c r="B629">
@@ -23141,7 +23146,7 @@
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="102">
+      <c r="A630" s="101">
         <v>44488</v>
       </c>
       <c r="B630">
@@ -23160,7 +23165,7 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A631" s="102">
+      <c r="A631" s="101">
         <v>44487</v>
       </c>
       <c r="B631">
@@ -23179,7 +23184,7 @@
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="102">
+      <c r="A632" s="101">
         <v>44484</v>
       </c>
       <c r="B632">
@@ -23198,7 +23203,7 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="102">
+      <c r="A633" s="101">
         <v>44483</v>
       </c>
       <c r="B633">
@@ -23217,7 +23222,7 @@
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="102">
+      <c r="A634" s="101">
         <v>44482</v>
       </c>
       <c r="B634">
@@ -23236,7 +23241,7 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A635" s="102">
+      <c r="A635" s="101">
         <v>44481</v>
       </c>
       <c r="B635">
@@ -23255,7 +23260,7 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A636" s="102">
+      <c r="A636" s="101">
         <v>44480</v>
       </c>
       <c r="B636">
@@ -23274,7 +23279,7 @@
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="102">
+      <c r="A637" s="101">
         <v>44477</v>
       </c>
       <c r="B637">
@@ -23293,7 +23298,7 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="102">
+      <c r="A638" s="101">
         <v>44476</v>
       </c>
       <c r="B638">
@@ -23312,7 +23317,7 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A639" s="102">
+      <c r="A639" s="101">
         <v>44475</v>
       </c>
       <c r="B639">
@@ -23331,7 +23336,7 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A640" s="102">
+      <c r="A640" s="101">
         <v>44474</v>
       </c>
       <c r="B640">
@@ -23350,7 +23355,7 @@
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A641" s="102">
+      <c r="A641" s="101">
         <v>44473</v>
       </c>
       <c r="B641">
@@ -23369,7 +23374,7 @@
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A642" s="102">
+      <c r="A642" s="101">
         <v>44470</v>
       </c>
       <c r="B642">
@@ -23388,7 +23393,7 @@
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A643" s="102">
+      <c r="A643" s="101">
         <v>44469</v>
       </c>
       <c r="B643">
@@ -23407,7 +23412,7 @@
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A644" s="102">
+      <c r="A644" s="101">
         <v>44468</v>
       </c>
       <c r="B644">
@@ -23426,7 +23431,7 @@
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A645" s="102">
+      <c r="A645" s="101">
         <v>44467</v>
       </c>
       <c r="B645">
@@ -23445,7 +23450,7 @@
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A646" s="102">
+      <c r="A646" s="101">
         <v>44466</v>
       </c>
       <c r="B646">
@@ -23464,7 +23469,7 @@
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A647" s="102">
+      <c r="A647" s="101">
         <v>44463</v>
       </c>
       <c r="B647">
@@ -23483,7 +23488,7 @@
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A648" s="102">
+      <c r="A648" s="101">
         <v>44462</v>
       </c>
       <c r="B648">
@@ -23502,7 +23507,7 @@
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A649" s="102">
+      <c r="A649" s="101">
         <v>44461</v>
       </c>
       <c r="B649">
@@ -23521,7 +23526,7 @@
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A650" s="102">
+      <c r="A650" s="101">
         <v>44460</v>
       </c>
       <c r="B650">
@@ -23540,7 +23545,7 @@
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A651" s="102">
+      <c r="A651" s="101">
         <v>44459</v>
       </c>
       <c r="B651">
@@ -23559,7 +23564,7 @@
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A652" s="102">
+      <c r="A652" s="101">
         <v>44456</v>
       </c>
       <c r="B652">
@@ -23578,7 +23583,7 @@
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A653" s="102">
+      <c r="A653" s="101">
         <v>44455</v>
       </c>
       <c r="B653">
@@ -23597,7 +23602,7 @@
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A654" s="102">
+      <c r="A654" s="101">
         <v>44454</v>
       </c>
       <c r="B654">
@@ -23616,7 +23621,7 @@
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A655" s="102">
+      <c r="A655" s="101">
         <v>44453</v>
       </c>
       <c r="B655">
@@ -23635,7 +23640,7 @@
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A656" s="102">
+      <c r="A656" s="101">
         <v>44452</v>
       </c>
       <c r="B656">
@@ -23654,7 +23659,7 @@
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A657" s="102">
+      <c r="A657" s="101">
         <v>44449</v>
       </c>
       <c r="B657">
@@ -23673,7 +23678,7 @@
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A658" s="102">
+      <c r="A658" s="101">
         <v>44448</v>
       </c>
       <c r="B658">
@@ -23692,7 +23697,7 @@
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A659" s="102">
+      <c r="A659" s="101">
         <v>44447</v>
       </c>
       <c r="B659">
@@ -23711,7 +23716,7 @@
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A660" s="102">
+      <c r="A660" s="101">
         <v>44446</v>
       </c>
       <c r="B660">
@@ -23730,7 +23735,7 @@
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A661" s="102">
+      <c r="A661" s="101">
         <v>44442</v>
       </c>
       <c r="B661">
@@ -23749,7 +23754,7 @@
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A662" s="102">
+      <c r="A662" s="101">
         <v>44441</v>
       </c>
       <c r="B662">
@@ -23768,7 +23773,7 @@
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A663" s="102">
+      <c r="A663" s="101">
         <v>44440</v>
       </c>
       <c r="B663">
@@ -23787,7 +23792,7 @@
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A664" s="102">
+      <c r="A664" s="101">
         <v>44439</v>
       </c>
       <c r="B664">
@@ -23806,7 +23811,7 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A665" s="102">
+      <c r="A665" s="101">
         <v>44438</v>
       </c>
       <c r="B665">
@@ -23825,7 +23830,7 @@
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A666" s="102">
+      <c r="A666" s="101">
         <v>44435</v>
       </c>
       <c r="B666">
@@ -23844,7 +23849,7 @@
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A667" s="102">
+      <c r="A667" s="101">
         <v>44434</v>
       </c>
       <c r="B667">
@@ -23863,7 +23868,7 @@
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A668" s="102">
+      <c r="A668" s="101">
         <v>44433</v>
       </c>
       <c r="B668">
@@ -23882,7 +23887,7 @@
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A669" s="102">
+      <c r="A669" s="101">
         <v>44432</v>
       </c>
       <c r="B669">
@@ -23901,7 +23906,7 @@
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A670" s="102">
+      <c r="A670" s="101">
         <v>44431</v>
       </c>
       <c r="B670">
@@ -23920,7 +23925,7 @@
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A671" s="102">
+      <c r="A671" s="101">
         <v>44428</v>
       </c>
       <c r="B671">
@@ -23939,7 +23944,7 @@
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A672" s="102">
+      <c r="A672" s="101">
         <v>44427</v>
       </c>
       <c r="B672">
@@ -23958,7 +23963,7 @@
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A673" s="102">
+      <c r="A673" s="101">
         <v>44426</v>
       </c>
       <c r="B673">
@@ -23977,7 +23982,7 @@
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A674" s="102">
+      <c r="A674" s="101">
         <v>44425</v>
       </c>
       <c r="B674">
@@ -23996,7 +24001,7 @@
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A675" s="102">
+      <c r="A675" s="101">
         <v>44424</v>
       </c>
       <c r="B675">
@@ -24015,7 +24020,7 @@
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A676" s="102">
+      <c r="A676" s="101">
         <v>44421</v>
       </c>
       <c r="B676">
@@ -24034,7 +24039,7 @@
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A677" s="102">
+      <c r="A677" s="101">
         <v>44420</v>
       </c>
       <c r="B677">
@@ -24053,7 +24058,7 @@
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A678" s="102">
+      <c r="A678" s="101">
         <v>44419</v>
       </c>
       <c r="B678">
@@ -24072,7 +24077,7 @@
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A679" s="102">
+      <c r="A679" s="101">
         <v>44418</v>
       </c>
       <c r="B679">
@@ -24091,7 +24096,7 @@
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A680" s="102">
+      <c r="A680" s="101">
         <v>44417</v>
       </c>
       <c r="B680">
@@ -24110,7 +24115,7 @@
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A681" s="102">
+      <c r="A681" s="101">
         <v>44414</v>
       </c>
       <c r="B681">
@@ -24129,7 +24134,7 @@
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A682" s="102">
+      <c r="A682" s="101">
         <v>44413</v>
       </c>
       <c r="B682">
@@ -24148,7 +24153,7 @@
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A683" s="102">
+      <c r="A683" s="101">
         <v>44412</v>
       </c>
       <c r="B683">
@@ -24167,7 +24172,7 @@
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A684" s="102">
+      <c r="A684" s="101">
         <v>44411</v>
       </c>
       <c r="B684">
@@ -24186,7 +24191,7 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" s="102">
+      <c r="A685" s="101">
         <v>44410</v>
       </c>
       <c r="B685">
@@ -24205,7 +24210,7 @@
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A686" s="102">
+      <c r="A686" s="101">
         <v>44407</v>
       </c>
       <c r="B686">
@@ -24224,7 +24229,7 @@
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A687" s="102">
+      <c r="A687" s="101">
         <v>44406</v>
       </c>
       <c r="B687">
@@ -24243,7 +24248,7 @@
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A688" s="102">
+      <c r="A688" s="101">
         <v>44405</v>
       </c>
       <c r="B688">
@@ -24262,7 +24267,7 @@
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A689" s="102">
+      <c r="A689" s="101">
         <v>44404</v>
       </c>
       <c r="B689">
@@ -24281,7 +24286,7 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A690" s="102">
+      <c r="A690" s="101">
         <v>44403</v>
       </c>
       <c r="B690">
@@ -24300,7 +24305,7 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A691" s="102">
+      <c r="A691" s="101">
         <v>44400</v>
       </c>
       <c r="B691">
@@ -24319,7 +24324,7 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A692" s="102">
+      <c r="A692" s="101">
         <v>44399</v>
       </c>
       <c r="B692">
@@ -24338,7 +24343,7 @@
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A693" s="102">
+      <c r="A693" s="101">
         <v>44398</v>
       </c>
       <c r="B693">
@@ -24357,7 +24362,7 @@
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A694" s="102">
+      <c r="A694" s="101">
         <v>44397</v>
       </c>
       <c r="B694">
@@ -24376,7 +24381,7 @@
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A695" s="102">
+      <c r="A695" s="101">
         <v>44396</v>
       </c>
       <c r="B695">
@@ -24395,7 +24400,7 @@
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A696" s="102">
+      <c r="A696" s="101">
         <v>44393</v>
       </c>
       <c r="B696">
@@ -24414,7 +24419,7 @@
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A697" s="102">
+      <c r="A697" s="101">
         <v>44392</v>
       </c>
       <c r="B697">
@@ -24433,7 +24438,7 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A698" s="102">
+      <c r="A698" s="101">
         <v>44391</v>
       </c>
       <c r="B698">
@@ -24452,7 +24457,7 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A699" s="102">
+      <c r="A699" s="101">
         <v>44390</v>
       </c>
       <c r="B699">
@@ -24471,7 +24476,7 @@
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A700" s="102">
+      <c r="A700" s="101">
         <v>44389</v>
       </c>
       <c r="B700">
@@ -24490,7 +24495,7 @@
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A701" s="102">
+      <c r="A701" s="101">
         <v>44386</v>
       </c>
       <c r="B701">
@@ -24509,7 +24514,7 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A702" s="102">
+      <c r="A702" s="101">
         <v>44385</v>
       </c>
       <c r="B702">
@@ -24528,7 +24533,7 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A703" s="102">
+      <c r="A703" s="101">
         <v>44384</v>
       </c>
       <c r="B703">
@@ -24547,7 +24552,7 @@
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A704" s="102">
+      <c r="A704" s="101">
         <v>44383</v>
       </c>
       <c r="B704">
@@ -24566,7 +24571,7 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A705" s="102">
+      <c r="A705" s="101">
         <v>44379</v>
       </c>
       <c r="B705">
@@ -24585,7 +24590,7 @@
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A706" s="102">
+      <c r="A706" s="101">
         <v>44378</v>
       </c>
       <c r="B706">
@@ -24604,7 +24609,7 @@
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A707" s="102">
+      <c r="A707" s="101">
         <v>44377</v>
       </c>
       <c r="B707">
@@ -24623,7 +24628,7 @@
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A708" s="102">
+      <c r="A708" s="101">
         <v>44376</v>
       </c>
       <c r="B708">
@@ -24642,7 +24647,7 @@
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A709" s="102">
+      <c r="A709" s="101">
         <v>44375</v>
       </c>
       <c r="B709">
@@ -24661,7 +24666,7 @@
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A710" s="102">
+      <c r="A710" s="101">
         <v>44372</v>
       </c>
       <c r="B710">
@@ -24680,7 +24685,7 @@
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A711" s="102">
+      <c r="A711" s="101">
         <v>44371</v>
       </c>
       <c r="B711">
@@ -24699,7 +24704,7 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A712" s="102">
+      <c r="A712" s="101">
         <v>44370</v>
       </c>
       <c r="B712">
@@ -24718,7 +24723,7 @@
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A713" s="102">
+      <c r="A713" s="101">
         <v>44369</v>
       </c>
       <c r="B713">
@@ -24737,7 +24742,7 @@
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A714" s="102">
+      <c r="A714" s="101">
         <v>44368</v>
       </c>
       <c r="B714">
@@ -24756,7 +24761,7 @@
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A715" s="102">
+      <c r="A715" s="101">
         <v>44365</v>
       </c>
       <c r="B715">
@@ -24775,7 +24780,7 @@
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A716" s="102">
+      <c r="A716" s="101">
         <v>44364</v>
       </c>
       <c r="B716">
@@ -24794,7 +24799,7 @@
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A717" s="102">
+      <c r="A717" s="101">
         <v>44363</v>
       </c>
       <c r="B717">
@@ -24813,7 +24818,7 @@
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A718" s="102">
+      <c r="A718" s="101">
         <v>44362</v>
       </c>
       <c r="B718">
@@ -24832,7 +24837,7 @@
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A719" s="102">
+      <c r="A719" s="101">
         <v>44361</v>
       </c>
       <c r="B719">
@@ -24851,7 +24856,7 @@
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A720" s="102">
+      <c r="A720" s="101">
         <v>44358</v>
       </c>
       <c r="B720">
@@ -24870,7 +24875,7 @@
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A721" s="102">
+      <c r="A721" s="101">
         <v>44357</v>
       </c>
       <c r="B721">
@@ -24889,7 +24894,7 @@
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A722" s="102">
+      <c r="A722" s="101">
         <v>44356</v>
       </c>
       <c r="B722">
@@ -24908,7 +24913,7 @@
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A723" s="102">
+      <c r="A723" s="101">
         <v>44355</v>
       </c>
       <c r="B723">
@@ -24927,7 +24932,7 @@
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A724" s="102">
+      <c r="A724" s="101">
         <v>44354</v>
       </c>
       <c r="B724">
@@ -24946,7 +24951,7 @@
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A725" s="102">
+      <c r="A725" s="101">
         <v>44351</v>
       </c>
       <c r="B725">
@@ -24965,7 +24970,7 @@
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A726" s="102">
+      <c r="A726" s="101">
         <v>44350</v>
       </c>
       <c r="B726">
@@ -24984,7 +24989,7 @@
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A727" s="102">
+      <c r="A727" s="101">
         <v>44349</v>
       </c>
       <c r="B727">
@@ -25003,7 +25008,7 @@
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" s="102">
+      <c r="A728" s="101">
         <v>44348</v>
       </c>
       <c r="B728">
@@ -25022,7 +25027,7 @@
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A729" s="102">
+      <c r="A729" s="101">
         <v>44344</v>
       </c>
       <c r="B729">
@@ -25041,7 +25046,7 @@
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" s="102">
+      <c r="A730" s="101">
         <v>44343</v>
       </c>
       <c r="B730">
@@ -25060,7 +25065,7 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A731" s="102">
+      <c r="A731" s="101">
         <v>44342</v>
       </c>
       <c r="B731">
@@ -25079,7 +25084,7 @@
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A732" s="102">
+      <c r="A732" s="101">
         <v>44341</v>
       </c>
       <c r="B732">
@@ -25098,7 +25103,7 @@
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A733" s="102">
+      <c r="A733" s="101">
         <v>44340</v>
       </c>
       <c r="B733">
@@ -25117,7 +25122,7 @@
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A734" s="102">
+      <c r="A734" s="101">
         <v>44337</v>
       </c>
       <c r="B734">
@@ -25136,7 +25141,7 @@
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A735" s="102">
+      <c r="A735" s="101">
         <v>44336</v>
       </c>
       <c r="B735">
@@ -25155,7 +25160,7 @@
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A736" s="102">
+      <c r="A736" s="101">
         <v>44335</v>
       </c>
       <c r="B736">
@@ -25174,7 +25179,7 @@
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A737" s="102">
+      <c r="A737" s="101">
         <v>44334</v>
       </c>
       <c r="B737">
@@ -25193,7 +25198,7 @@
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A738" s="102">
+      <c r="A738" s="101">
         <v>44333</v>
       </c>
       <c r="B738">
@@ -25212,7 +25217,7 @@
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A739" s="102">
+      <c r="A739" s="101">
         <v>44330</v>
       </c>
       <c r="B739">
@@ -25231,7 +25236,7 @@
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A740" s="102">
+      <c r="A740" s="101">
         <v>44329</v>
       </c>
       <c r="B740">
@@ -25250,7 +25255,7 @@
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A741" s="102">
+      <c r="A741" s="101">
         <v>44328</v>
       </c>
       <c r="B741">
@@ -25269,7 +25274,7 @@
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A742" s="102">
+      <c r="A742" s="101">
         <v>44327</v>
       </c>
       <c r="B742">
@@ -25288,7 +25293,7 @@
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A743" s="102">
+      <c r="A743" s="101">
         <v>44326</v>
       </c>
       <c r="B743">
@@ -25307,7 +25312,7 @@
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A744" s="102">
+      <c r="A744" s="101">
         <v>44323</v>
       </c>
       <c r="B744">
@@ -25326,7 +25331,7 @@
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A745" s="102">
+      <c r="A745" s="101">
         <v>44322</v>
       </c>
       <c r="B745">
@@ -25345,7 +25350,7 @@
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A746" s="102">
+      <c r="A746" s="101">
         <v>44321</v>
       </c>
       <c r="B746">
@@ -25364,7 +25369,7 @@
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A747" s="102">
+      <c r="A747" s="101">
         <v>44320</v>
       </c>
       <c r="B747">
@@ -25383,7 +25388,7 @@
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A748" s="102">
+      <c r="A748" s="101">
         <v>44319</v>
       </c>
       <c r="B748">
@@ -25402,7 +25407,7 @@
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A749" s="102">
+      <c r="A749" s="101">
         <v>44316</v>
       </c>
       <c r="B749">
@@ -25421,7 +25426,7 @@
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A750" s="102">
+      <c r="A750" s="101">
         <v>44315</v>
       </c>
       <c r="B750">
@@ -25440,7 +25445,7 @@
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A751" s="102">
+      <c r="A751" s="101">
         <v>44314</v>
       </c>
       <c r="B751">
@@ -25459,7 +25464,7 @@
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A752" s="102">
+      <c r="A752" s="101">
         <v>44313</v>
       </c>
       <c r="B752">
@@ -25478,7 +25483,7 @@
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A753" s="102">
+      <c r="A753" s="101">
         <v>44312</v>
       </c>
       <c r="B753">
@@ -25497,7 +25502,7 @@
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A754" s="102">
+      <c r="A754" s="101">
         <v>44309</v>
       </c>
       <c r="B754">
@@ -25516,7 +25521,7 @@
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A755" s="102">
+      <c r="A755" s="101">
         <v>44308</v>
       </c>
       <c r="B755">
@@ -25535,7 +25540,7 @@
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A756" s="102">
+      <c r="A756" s="101">
         <v>44307</v>
       </c>
       <c r="B756">

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7816BE4-2AF8-4D7B-AC8C-36A98E97BB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195ACBEC-65DA-4EE5-A558-633FFF2FBDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="43200" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="OEMO">'Financial Statement'!$C$167:$G$167</definedName>
     <definedName name="RD">'Financial Statement'!$C$173:$G$173</definedName>
     <definedName name="Revenue">'Financial Statement'!$C$169:$G$169</definedName>
-    <definedName name="sensitivityTEV">DCF!$E$24:$I$24</definedName>
+    <definedName name="sensitivityTEV">DCF!$E$25:$I$25</definedName>
     <definedName name="sensitivityTV">DCF!$E$23:$I$23</definedName>
     <definedName name="SGA">'Financial Statement'!$C$174:$G$174</definedName>
     <definedName name="USTax">'Financial Statement'!$H$67:$L$67</definedName>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="290">
   <si>
     <t>-</t>
   </si>
@@ -945,6 +945,12 @@
   </si>
   <si>
     <t>Training and inference</t>
+  </si>
+  <si>
+    <t>Lord Aswath's ERP</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1280,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1472,7 +1478,6 @@
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1482,6 +1487,10 @@
     <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1883,10 +1892,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,33 +2230,33 @@
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="45">
-        <f>+D14/(1+$C$29)^D15</f>
+        <f>+D14/(1+$C$30)^D15</f>
         <v>20269466.638535351</v>
       </c>
       <c r="E16" s="45">
-        <f>+E14/(1+$C$29)^E15</f>
-        <v>28813643.101152577</v>
+        <f>+E14/(1+$C$30)^E15</f>
+        <v>29533223.73987627</v>
       </c>
       <c r="F16" s="45">
-        <f>+F14/(1+$C$29)^F15</f>
-        <v>28703861.542408869</v>
+        <f>+F14/(1+$C$30)^F15</f>
+        <v>30155441.592928257</v>
       </c>
       <c r="G16" s="45">
-        <f>+G14/(1+$C$29)^G15</f>
-        <v>25666653.636051882</v>
+        <f>+G14/(1+$C$30)^G15</f>
+        <v>27638043.699028537</v>
       </c>
       <c r="H16" s="96">
-        <f>+H14/(1+$C$29)^H15</f>
-        <v>21663496.68280194</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <f>+H14/(1+$C$30)^H15</f>
+        <v>23909984.206062052</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H17" s="52">
         <f>+SUM(D16:H16)</f>
-        <v>125117121.60095063</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>131506159.87643047</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>240</v>
       </c>
@@ -2259,19 +2268,19 @@
         <v>246</v>
       </c>
       <c r="F19" s="100">
-        <f>+C35/C21</f>
-        <v>542.60347541465092</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <f>+C36/C21</f>
+        <v>545.19117823987563</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="110">
+      <c r="C20" s="109">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>233</v>
       </c>
@@ -2280,18 +2289,18 @@
         <v>2469000</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22" s="110">
         <v>750</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>274</v>
       </c>
@@ -2299,153 +2308,169 @@
         <f>+SLOPE(df!D2:D755,df!E2:E755)</f>
         <v>2.1784693004584912</v>
       </c>
-      <c r="E23" s="109">
+      <c r="E23" s="108">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F23" s="109">
+      <c r="F23" s="108">
         <f>+E23+0.5%</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="G23" s="109">
+      <c r="G23" s="108">
         <f t="shared" ref="G23:I23" si="4">+F23+0.5%</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H23" s="109">
+      <c r="H23" s="108">
         <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="I23" s="109">
+      <c r="I23" s="108">
         <f t="shared" si="4"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="118" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="117">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C25" s="44">
         <f>+C21*C22</f>
         <v>1851750000</v>
       </c>
-      <c r="E24" s="43" cm="1">
-        <f t="array" ref="E24:I24">+($H$14*(1+sensitivityTV)/sensitivityTV)-$C$34+$H$17</f>
-        <v>1810041936.0443082</v>
-      </c>
-      <c r="F24" s="43">
-        <v>1535668795.4844129</v>
-      </c>
-      <c r="G24" s="43">
-        <v>1339687980.7987731</v>
-      </c>
-      <c r="H24" s="43">
-        <v>1192702369.7845435</v>
-      </c>
-      <c r="I24" s="43">
-        <v>1078380227.8845868</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="E25" s="43" cm="1">
+        <f t="array" ref="E25:I25">+($H$14*(1+sensitivityTV)/sensitivityTV)-$C$35+$H$17</f>
+        <v>1816430974.319788</v>
+      </c>
+      <c r="F25" s="43">
+        <v>1542057833.7598927</v>
+      </c>
+      <c r="G25" s="43">
+        <v>1346077019.0742528</v>
+      </c>
+      <c r="H25" s="43">
+        <v>1199091408.0600233</v>
+      </c>
+      <c r="I25" s="43">
+        <v>1084769266.1600666</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C26" s="44">
         <f>+SUM('Debt Schedule'!B13)</f>
         <v>9750000</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="54">
-        <f>+C20+(C20)*C23</f>
-        <v>0.17481581152521702</v>
-      </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="41" t="s">
+      <c r="C27" s="54">
+        <f>+C20+C23*C24</f>
+        <v>0.14606001675916491</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="41" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="N27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C28" s="54">
         <f>+SUMPRODUCT('Debt Schedule'!B5:B12,'Debt Schedule'!C5:C12)/SUM('Debt Schedule'!B5:B12)</f>
         <v>2.6335897435897437E-2</v>
       </c>
-      <c r="E27" s="108" cm="1">
-        <f t="array" ref="E27:I27">+sensitivityTEV/$C$21</f>
-        <v>733.10730499971976</v>
-      </c>
-      <c r="F27" s="108">
-        <v>621.98007107509636</v>
-      </c>
-      <c r="G27" s="108">
-        <v>542.60347541465092</v>
-      </c>
-      <c r="H27" s="108">
-        <v>483.07102866931695</v>
-      </c>
-      <c r="I27" s="108">
-        <v>436.76801453405704</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="54"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="106" t="s">
+      <c r="E28" s="107" cm="1">
+        <f t="array" ref="E28:I28">+sensitivityTEV/$C$21</f>
+        <v>735.69500782494447</v>
+      </c>
+      <c r="F28" s="107">
+        <v>624.56777390032107</v>
+      </c>
+      <c r="G28" s="107">
+        <v>545.19117823987563</v>
+      </c>
+      <c r="H28" s="107">
+        <v>485.65873149454166</v>
+      </c>
+      <c r="I28" s="107">
+        <v>439.35571735928175</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="54"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="107">
-        <f>+(C24/SUM(C24:C25)*C26+(C25/SUM(C24:C25))*C27*(1-C19))</f>
-        <v>0.17402156444086844</v>
-      </c>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C30" s="119">
+        <f>+(C25/SUM(C25:C26)*C27+(C26/SUM(C25:C26))*C28*(1-C19))</f>
+        <v>0.14541638423241451</v>
+      </c>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="110">
+      <c r="C32" s="109">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+    <row r="33" spans="2:3" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="97">
-        <f>(H14*(1+C31)/C31)</f>
+      <c r="C33" s="97">
+        <f>(H14*(1+C32)/C32)</f>
         <v>1217040859.1978223</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="C33" s="52">
-        <f>+C32+H17</f>
-        <v>1342157980.7987731</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="B34" s="90" t="s">
+      <c r="C34" s="52">
+        <f>+C33+H17</f>
+        <v>1348547019.0742528</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B35" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C35" s="98">
         <f>+'Debt Schedule'!B13-'Financial Statement'!H81</f>
         <v>2470000</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="52">
-        <f>+C33-C34</f>
-        <v>1339687980.7987731</v>
+      <c r="C36" s="52">
+        <f>+C34-C35</f>
+        <v>1346077019.0742528</v>
       </c>
     </row>
   </sheetData>
@@ -2459,10 +2484,10 @@
   <dimension ref="A4:R267"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomRight" activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2768,31 +2793,31 @@
       <c r="B17" s="103" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113">
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112">
         <f>+AVERAGE(G14:G16)</f>
         <v>35</v>
       </c>
-      <c r="H17" s="113">
+      <c r="H17" s="112">
         <f t="shared" ref="H17:L17" si="2">+AVERAGE(H14:H16)</f>
         <v>36</v>
       </c>
-      <c r="I17" s="113">
+      <c r="I17" s="112">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="J17" s="113">
+      <c r="J17" s="112">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="K17" s="113">
+      <c r="K17" s="112">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="L17" s="113">
+      <c r="L17" s="112">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
@@ -2842,22 +2867,22 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="114">
+      <c r="G20" s="113">
         <v>116000</v>
       </c>
-      <c r="H20" s="114">
+      <c r="H20" s="113">
         <v>116000</v>
       </c>
-      <c r="I20" s="114">
+      <c r="I20" s="113">
         <v>116000</v>
       </c>
-      <c r="J20" s="114">
+      <c r="J20" s="113">
         <v>116000</v>
       </c>
-      <c r="K20" s="114">
+      <c r="K20" s="113">
         <v>116000</v>
       </c>
-      <c r="L20" s="114">
+      <c r="L20" s="113">
         <v>70000</v>
       </c>
       <c r="M20" s="8"/>
@@ -2872,22 +2897,22 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="114">
+      <c r="G21" s="113">
         <v>65000</v>
       </c>
-      <c r="H21" s="114">
+      <c r="H21" s="113">
         <v>65000</v>
       </c>
-      <c r="I21" s="114">
+      <c r="I21" s="113">
         <v>65000</v>
       </c>
-      <c r="J21" s="114">
+      <c r="J21" s="113">
         <v>65000</v>
       </c>
-      <c r="K21" s="114">
+      <c r="K21" s="113">
         <v>65000</v>
       </c>
-      <c r="L21" s="114">
+      <c r="L21" s="113">
         <v>65000</v>
       </c>
       <c r="M21" s="8"/>
@@ -2902,22 +2927,22 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="114">
+      <c r="G22" s="113">
         <v>90000</v>
       </c>
-      <c r="H22" s="114">
+      <c r="H22" s="113">
         <v>90000</v>
       </c>
-      <c r="I22" s="114">
+      <c r="I22" s="113">
         <v>90000</v>
       </c>
-      <c r="J22" s="114">
+      <c r="J22" s="113">
         <v>90000</v>
       </c>
-      <c r="K22" s="114">
+      <c r="K22" s="113">
         <v>90000</v>
       </c>
-      <c r="L22" s="114">
+      <c r="L22" s="113">
         <v>90000</v>
       </c>
       <c r="M22" s="8"/>
@@ -2932,22 +2957,22 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="114">
+      <c r="G23" s="113">
         <v>100000</v>
       </c>
-      <c r="H23" s="114">
+      <c r="H23" s="113">
         <v>100000</v>
       </c>
-      <c r="I23" s="114">
+      <c r="I23" s="113">
         <v>100000</v>
       </c>
-      <c r="J23" s="114">
+      <c r="J23" s="113">
         <v>100000</v>
       </c>
-      <c r="K23" s="114">
+      <c r="K23" s="113">
         <v>100000</v>
       </c>
-      <c r="L23" s="114">
+      <c r="L23" s="113">
         <v>100000</v>
       </c>
       <c r="M23" s="8"/>
@@ -2962,22 +2987,22 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="114">
+      <c r="G24" s="113">
         <v>61000</v>
       </c>
-      <c r="H24" s="114">
+      <c r="H24" s="113">
         <v>61000</v>
       </c>
-      <c r="I24" s="114">
+      <c r="I24" s="113">
         <v>61000</v>
       </c>
-      <c r="J24" s="114">
+      <c r="J24" s="113">
         <v>61000</v>
       </c>
-      <c r="K24" s="114">
+      <c r="K24" s="113">
         <v>61000</v>
       </c>
-      <c r="L24" s="114">
+      <c r="L24" s="113">
         <v>61000</v>
       </c>
       <c r="M24" s="8"/>
@@ -2992,22 +3017,22 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="114">
+      <c r="G25" s="113">
         <v>130000</v>
       </c>
-      <c r="H25" s="114">
+      <c r="H25" s="113">
         <v>130000</v>
       </c>
-      <c r="I25" s="114">
+      <c r="I25" s="113">
         <v>130000</v>
       </c>
-      <c r="J25" s="114">
+      <c r="J25" s="113">
         <v>130000</v>
       </c>
-      <c r="K25" s="114">
+      <c r="K25" s="113">
         <v>130000</v>
       </c>
-      <c r="L25" s="114">
+      <c r="L25" s="113">
         <v>130000</v>
       </c>
       <c r="M25" s="8"/>
@@ -3022,22 +3047,22 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="114">
+      <c r="G26" s="113">
         <v>11000</v>
       </c>
-      <c r="H26" s="114">
+      <c r="H26" s="113">
         <v>11000</v>
       </c>
-      <c r="I26" s="114">
+      <c r="I26" s="113">
         <v>11000</v>
       </c>
-      <c r="J26" s="114">
+      <c r="J26" s="113">
         <v>11000</v>
       </c>
-      <c r="K26" s="114">
+      <c r="K26" s="113">
         <v>11000</v>
       </c>
-      <c r="L26" s="114">
+      <c r="L26" s="113">
         <v>11000</v>
       </c>
       <c r="M26" s="8"/>
@@ -3052,22 +3077,22 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="114">
+      <c r="G27" s="113">
         <v>85000</v>
       </c>
-      <c r="H27" s="114">
+      <c r="H27" s="113">
         <v>85000</v>
       </c>
-      <c r="I27" s="114">
+      <c r="I27" s="113">
         <v>85000</v>
       </c>
-      <c r="J27" s="114">
+      <c r="J27" s="113">
         <v>85000</v>
       </c>
-      <c r="K27" s="114">
+      <c r="K27" s="113">
         <v>85000</v>
       </c>
-      <c r="L27" s="114">
+      <c r="L27" s="113">
         <v>85000</v>
       </c>
       <c r="M27" s="8"/>
@@ -3082,22 +3107,22 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="114">
+      <c r="G28" s="113">
         <v>57000</v>
       </c>
-      <c r="H28" s="114">
+      <c r="H28" s="113">
         <v>57000</v>
       </c>
-      <c r="I28" s="114">
+      <c r="I28" s="113">
         <v>57000</v>
       </c>
-      <c r="J28" s="114">
+      <c r="J28" s="113">
         <v>57000</v>
       </c>
-      <c r="K28" s="114">
+      <c r="K28" s="113">
         <v>57000</v>
       </c>
-      <c r="L28" s="114">
+      <c r="L28" s="113">
         <v>57000</v>
       </c>
       <c r="M28" s="8"/>
@@ -3105,29 +3130,29 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="115" t="s">
         <v>256</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="114">
+      <c r="G29" s="113">
         <v>50000</v>
       </c>
-      <c r="H29" s="114">
+      <c r="H29" s="113">
         <v>50000</v>
       </c>
-      <c r="I29" s="114">
+      <c r="I29" s="113">
         <v>50000</v>
       </c>
-      <c r="J29" s="114">
+      <c r="J29" s="113">
         <v>50000</v>
       </c>
-      <c r="K29" s="114">
+      <c r="K29" s="113">
         <v>50000</v>
       </c>
-      <c r="L29" s="114">
+      <c r="L29" s="113">
         <v>50000</v>
       </c>
       <c r="M29" s="8"/>
@@ -3142,22 +3167,22 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="114">
+      <c r="G30" s="113">
         <v>50000</v>
       </c>
-      <c r="H30" s="114">
+      <c r="H30" s="113">
         <v>50000</v>
       </c>
-      <c r="I30" s="114">
+      <c r="I30" s="113">
         <v>50000</v>
       </c>
-      <c r="J30" s="114">
+      <c r="J30" s="113">
         <v>50000</v>
       </c>
-      <c r="K30" s="114">
+      <c r="K30" s="113">
         <v>50000</v>
       </c>
-      <c r="L30" s="114">
+      <c r="L30" s="113">
         <v>50000</v>
       </c>
       <c r="M30" s="8"/>
@@ -3172,22 +3197,22 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="114">
+      <c r="G31" s="113">
         <v>11000</v>
       </c>
-      <c r="H31" s="114">
+      <c r="H31" s="113">
         <v>11000</v>
       </c>
-      <c r="I31" s="114">
+      <c r="I31" s="113">
         <v>11000</v>
       </c>
-      <c r="J31" s="114">
+      <c r="J31" s="113">
         <v>11000</v>
       </c>
-      <c r="K31" s="114">
+      <c r="K31" s="113">
         <v>11000</v>
       </c>
-      <c r="L31" s="114">
+      <c r="L31" s="113">
         <v>11000</v>
       </c>
       <c r="M31" s="8"/>
@@ -3202,22 +3227,22 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="114">
+      <c r="G32" s="113">
         <v>10000</v>
       </c>
-      <c r="H32" s="114">
+      <c r="H32" s="113">
         <v>10000</v>
       </c>
-      <c r="I32" s="114">
+      <c r="I32" s="113">
         <v>10000</v>
       </c>
-      <c r="J32" s="114">
+      <c r="J32" s="113">
         <v>10000</v>
       </c>
-      <c r="K32" s="114">
+      <c r="K32" s="113">
         <v>10000</v>
       </c>
-      <c r="L32" s="114">
+      <c r="L32" s="113">
         <v>10000</v>
       </c>
       <c r="M32" s="8"/>
@@ -3232,22 +3257,22 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="114">
+      <c r="G33" s="113">
         <v>90000</v>
       </c>
-      <c r="H33" s="114">
+      <c r="H33" s="113">
         <v>90000</v>
       </c>
-      <c r="I33" s="114">
+      <c r="I33" s="113">
         <v>90000</v>
       </c>
-      <c r="J33" s="114">
+      <c r="J33" s="113">
         <v>90000</v>
       </c>
-      <c r="K33" s="114">
+      <c r="K33" s="113">
         <v>90000</v>
       </c>
-      <c r="L33" s="114">
+      <c r="L33" s="113">
         <v>90000</v>
       </c>
       <c r="M33" s="8"/>
@@ -3262,22 +3287,22 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="114">
+      <c r="G34" s="113">
         <v>90000</v>
       </c>
-      <c r="H34" s="114">
+      <c r="H34" s="113">
         <v>90000</v>
       </c>
-      <c r="I34" s="114">
+      <c r="I34" s="113">
         <v>90000</v>
       </c>
-      <c r="J34" s="114">
+      <c r="J34" s="113">
         <v>90000</v>
       </c>
-      <c r="K34" s="114">
+      <c r="K34" s="113">
         <v>90000</v>
       </c>
-      <c r="L34" s="114">
+      <c r="L34" s="113">
         <v>90000</v>
       </c>
       <c r="M34" s="8"/>
@@ -3292,22 +3317,22 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="114">
+      <c r="G35" s="113">
         <v>10000</v>
       </c>
-      <c r="H35" s="114">
+      <c r="H35" s="113">
         <v>10000</v>
       </c>
-      <c r="I35" s="114">
+      <c r="I35" s="113">
         <v>10000</v>
       </c>
-      <c r="J35" s="114">
+      <c r="J35" s="113">
         <v>10000</v>
       </c>
-      <c r="K35" s="114">
+      <c r="K35" s="113">
         <v>10000</v>
       </c>
-      <c r="L35" s="114">
+      <c r="L35" s="113">
         <v>10000</v>
       </c>
       <c r="M35" s="8"/>
@@ -3322,22 +3347,22 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="114">
+      <c r="G36" s="113">
         <v>55000</v>
       </c>
-      <c r="H36" s="114">
+      <c r="H36" s="113">
         <v>55000</v>
       </c>
-      <c r="I36" s="114">
+      <c r="I36" s="113">
         <v>55000</v>
       </c>
-      <c r="J36" s="114">
+      <c r="J36" s="113">
         <v>55000</v>
       </c>
-      <c r="K36" s="114">
+      <c r="K36" s="113">
         <v>55000</v>
       </c>
-      <c r="L36" s="114">
+      <c r="L36" s="113">
         <v>55000</v>
       </c>
       <c r="M36" s="8"/>
@@ -3352,22 +3377,22 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="114">
+      <c r="G37" s="113">
         <v>15000</v>
       </c>
-      <c r="H37" s="114">
+      <c r="H37" s="113">
         <v>15000</v>
       </c>
-      <c r="I37" s="114">
+      <c r="I37" s="113">
         <v>15000</v>
       </c>
-      <c r="J37" s="114">
+      <c r="J37" s="113">
         <v>15000</v>
       </c>
-      <c r="K37" s="114">
+      <c r="K37" s="113">
         <v>15000</v>
       </c>
-      <c r="L37" s="114">
+      <c r="L37" s="113">
         <v>15000</v>
       </c>
       <c r="M37" s="8"/>
@@ -3382,22 +3407,22 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="114">
+      <c r="G38" s="113">
         <v>11000</v>
       </c>
-      <c r="H38" s="114">
+      <c r="H38" s="113">
         <v>11000</v>
       </c>
-      <c r="I38" s="114">
+      <c r="I38" s="113">
         <v>11000</v>
       </c>
-      <c r="J38" s="114">
+      <c r="J38" s="113">
         <v>11000</v>
       </c>
-      <c r="K38" s="114">
+      <c r="K38" s="113">
         <v>11000</v>
       </c>
-      <c r="L38" s="114">
+      <c r="L38" s="113">
         <v>11000</v>
       </c>
       <c r="M38" s="8"/>
@@ -3412,22 +3437,22 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="114">
+      <c r="G39" s="113">
         <v>11000</v>
       </c>
-      <c r="H39" s="114">
+      <c r="H39" s="113">
         <v>11000</v>
       </c>
-      <c r="I39" s="114">
+      <c r="I39" s="113">
         <v>11000</v>
       </c>
-      <c r="J39" s="114">
+      <c r="J39" s="113">
         <v>11000</v>
       </c>
-      <c r="K39" s="114">
+      <c r="K39" s="113">
         <v>11000</v>
       </c>
-      <c r="L39" s="114">
+      <c r="L39" s="113">
         <v>11000</v>
       </c>
       <c r="M39" s="8"/>
@@ -3442,27 +3467,27 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="115">
+      <c r="G40" s="114">
         <f>+SUM(G20:G39)</f>
         <v>1118000</v>
       </c>
-      <c r="H40" s="115">
+      <c r="H40" s="114">
         <f t="shared" ref="H40:L40" si="3">+SUM(H20:H39)</f>
         <v>1118000</v>
       </c>
-      <c r="I40" s="115">
+      <c r="I40" s="114">
         <f t="shared" si="3"/>
         <v>1118000</v>
       </c>
-      <c r="J40" s="115">
+      <c r="J40" s="114">
         <f t="shared" si="3"/>
         <v>1118000</v>
       </c>
-      <c r="K40" s="115">
+      <c r="K40" s="114">
         <f t="shared" si="3"/>
         <v>1118000</v>
       </c>
-      <c r="L40" s="115">
+      <c r="L40" s="114">
         <f t="shared" si="3"/>
         <v>1072000</v>
       </c>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195ACBEC-65DA-4EE5-A558-633FFF2FBDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3137BC1-C52A-43D1-BC87-DDC90230D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="43200" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="3330" windowWidth="43200" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1894,8 +1894,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,20 +2350,20 @@
         <v>1851750000</v>
       </c>
       <c r="E25" s="43" cm="1">
-        <f t="array" ref="E25:I25">+($H$14*(1+sensitivityTV)/sensitivityTV)-$C$35+$H$17</f>
-        <v>1816430974.319788</v>
+        <f t="array" ref="E25:I25">+($H$14*(1+sensitivityTV)/(C30-sensitivityTV))-$C$35+$H$17</f>
+        <v>479361164.48430276</v>
       </c>
       <c r="F25" s="43">
-        <v>1542057833.7598927</v>
+        <v>496320670.6365459</v>
       </c>
       <c r="G25" s="43">
-        <v>1346077019.0742528</v>
+        <v>514816135.99177688</v>
       </c>
       <c r="H25" s="43">
-        <v>1199091408.0600233</v>
+        <v>535066116.59526896</v>
       </c>
       <c r="I25" s="43">
-        <v>1084769266.1600666</v>
+        <v>557332698.44947147</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -2401,19 +2401,19 @@
       </c>
       <c r="E28" s="107" cm="1">
         <f t="array" ref="E28:I28">+sensitivityTEV/$C$21</f>
-        <v>735.69500782494447</v>
+        <v>194.15194997339114</v>
       </c>
       <c r="F28" s="107">
-        <v>624.56777390032107</v>
+        <v>201.02092775882781</v>
       </c>
       <c r="G28" s="107">
-        <v>545.19117823987563</v>
+        <v>208.51200323684768</v>
       </c>
       <c r="H28" s="107">
-        <v>485.65873149454166</v>
+        <v>216.71369647439002</v>
       </c>
       <c r="I28" s="107">
-        <v>439.35571735928175</v>
+        <v>225.73215814073367</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>242</v>
       </c>
       <c r="C33" s="97">
-        <f>(H14*(1+C32)/C32)</f>
+        <f>(H14*(1+C32)/(C32))</f>
         <v>1217040859.1978223</v>
       </c>
     </row>
@@ -2484,10 +2484,10 @@
   <dimension ref="A4:R267"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C247" sqref="C247"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3137BC1-C52A-43D1-BC87-DDC90230D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583E293D-7839-4767-A06E-5C1EBAB2F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="3330" windowWidth="43200" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12165" yWindow="3330" windowWidth="43200" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1894,8 +1894,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,23 +2179,23 @@
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52">
-        <f>+D9+D11-C12-D13</f>
+        <f>+D9+D11+D12+D13</f>
         <v>20269466.638535351</v>
       </c>
       <c r="E14" s="52">
-        <f>+E9+E11-E12-E13</f>
+        <f t="shared" ref="E14:H14" si="3">+E9+E11+E12+E13</f>
         <v>33827838.350855984</v>
       </c>
       <c r="F14" s="52">
-        <f>+F9+F11-F12-F13</f>
+        <f t="shared" si="3"/>
         <v>39563296.856011271</v>
       </c>
       <c r="G14" s="52">
-        <f>+G9+G11-G12-G13</f>
+        <f t="shared" si="3"/>
         <v>41533398.813606679</v>
       </c>
       <c r="H14" s="52">
-        <f>+H9+H11-H12-H13</f>
+        <f t="shared" si="3"/>
         <v>41155971.083984338</v>
       </c>
     </row>
@@ -2212,15 +2212,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="92">
-        <f t="shared" ref="F15:H15" si="3">+E15+1</f>
+        <f t="shared" ref="F15:H15" si="4">+E15+1</f>
         <v>2</v>
       </c>
       <c r="G15" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H15" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F19" s="100">
         <f>+C36/C21</f>
-        <v>545.19117823987563</v>
+        <v>208.51200323684768</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -2316,15 +2316,15 @@
         <v>3.0000000000000002E-2</v>
       </c>
       <c r="G23" s="108">
-        <f t="shared" ref="G23:I23" si="4">+F23+0.5%</f>
+        <f t="shared" ref="G23:I23" si="5">+F23+0.5%</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H23" s="108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="I23" s="108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
@@ -2442,8 +2442,8 @@
         <v>242</v>
       </c>
       <c r="C33" s="97">
-        <f>(H14*(1+C32)/(C32))</f>
-        <v>1217040859.1978223</v>
+        <f>(H14*(1+C32)/(C30-C32))</f>
+        <v>385779976.11534643</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C34" s="52">
         <f>+C33+H17</f>
-        <v>1348547019.0742528</v>
+        <v>517286135.99177688</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17.25" x14ac:dyDescent="0.4">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C36" s="52">
         <f>+C34-C35</f>
-        <v>1346077019.0742528</v>
+        <v>514816135.99177688</v>
       </c>
     </row>
   </sheetData>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\modelz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583E293D-7839-4767-A06E-5C1EBAB2F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC388C-2A56-4480-A812-EC889DED01EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="3330" windowWidth="43200" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="43200" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
@@ -1894,8 +1894,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,25 +2235,26 @@
       </c>
       <c r="E16" s="45">
         <f>+E14/(1+$C$30)^E15</f>
-        <v>29533223.73987627</v>
+        <v>29529091.808938231</v>
       </c>
       <c r="F16" s="45">
         <f>+F14/(1+$C$30)^F15</f>
-        <v>30155441.592928257</v>
+        <v>30147004.214950841</v>
       </c>
       <c r="G16" s="45">
         <f>+G14/(1+$C$30)^G15</f>
-        <v>27638043.699028537</v>
+        <v>27626444.981024522</v>
       </c>
       <c r="H16" s="96">
         <f>+H14/(1+$C$30)^H15</f>
-        <v>23909984.206062052</v>
+        <v>23896606.2324147</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="54"/>
       <c r="H17" s="52">
         <f>+SUM(D16:H16)</f>
-        <v>131506159.87643047</v>
+        <v>131468613.87586364</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -2269,7 +2270,7 @@
       </c>
       <c r="F19" s="100">
         <f>+C36/C21</f>
-        <v>208.51200323684768</v>
+        <v>208.27032063770545</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -2294,7 +2295,7 @@
         <v>234</v>
       </c>
       <c r="C22" s="110">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>276</v>
@@ -2347,23 +2348,23 @@
       </c>
       <c r="C25" s="44">
         <f>+C21*C22</f>
-        <v>1851750000</v>
+        <v>2469000000</v>
       </c>
       <c r="E25" s="43" cm="1">
         <f t="array" ref="E25:I25">+($H$14*(1+sensitivityTV)/(C30-sensitivityTV))-$C$35+$H$17</f>
-        <v>479361164.48430276</v>
+        <v>478857952.79030323</v>
       </c>
       <c r="F25" s="43">
-        <v>496320670.6365459</v>
+        <v>495773795.13616931</v>
       </c>
       <c r="G25" s="43">
-        <v>514816135.99177688</v>
+        <v>514219421.65449476</v>
       </c>
       <c r="H25" s="43">
-        <v>535066116.59526896</v>
+        <v>534412179.27317142</v>
       </c>
       <c r="I25" s="43">
-        <v>557332698.44947147</v>
+        <v>556612635.07257831</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -2401,19 +2402,19 @@
       </c>
       <c r="E28" s="107" cm="1">
         <f t="array" ref="E28:I28">+sensitivityTEV/$C$21</f>
-        <v>194.15194997339114</v>
+        <v>193.94813802766433</v>
       </c>
       <c r="F28" s="107">
-        <v>201.02092775882781</v>
+        <v>200.7994309988535</v>
       </c>
       <c r="G28" s="107">
-        <v>208.51200323684768</v>
+        <v>208.27032063770545</v>
       </c>
       <c r="H28" s="107">
-        <v>216.71369647439002</v>
+        <v>216.44883729168546</v>
       </c>
       <c r="I28" s="107">
-        <v>225.73215814073367</v>
+        <v>225.44051643279801</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -2425,7 +2426,7 @@
       </c>
       <c r="C30" s="119">
         <f>+(C25/SUM(C25:C26)*C27+(C26/SUM(C25:C26))*C28*(1-C19))</f>
-        <v>0.14541638423241451</v>
+        <v>0.14557665944255538</v>
       </c>
       <c r="G30" s="44"/>
     </row>
@@ -2443,7 +2444,7 @@
       </c>
       <c r="C33" s="97">
         <f>(H14*(1+C32)/(C30-C32))</f>
-        <v>385779976.11534643</v>
+        <v>385220807.77863115</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -2452,7 +2453,7 @@
       </c>
       <c r="C34" s="52">
         <f>+C33+H17</f>
-        <v>517286135.99177688</v>
+        <v>516689421.65449476</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17.25" x14ac:dyDescent="0.4">
@@ -2470,7 +2471,7 @@
       </c>
       <c r="C36" s="52">
         <f>+C34-C35</f>
-        <v>514816135.99177688</v>
+        <v>514219421.65449476</v>
       </c>
     </row>
   </sheetData>
